--- a/猫途鹰/云南_酒店评论/云南酒店详细数据表格.xlsx
+++ b/猫途鹰/云南_酒店评论/云南酒店详细数据表格.xlsx
@@ -7,36 +7,24 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南酒店网址信息备份" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南省具体评论" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南市具体评论" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南沙溪古镇具体评论" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南映象具体评论" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南石林地质公园具体评论" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南民族村具体评论" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="七彩云南温德姆至尊豪廷大酒店具体评论" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南滇池温泉花园国际大酒店具体评论" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南味具体评论" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="昆明世博花园酒店具体评论" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南震庄迎宾馆具体评论" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南大学具体评论" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南咖啡吧具体评论" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南小粒咖啡 香城咖啡具体评论" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="华地王朝大酒店具体评论" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="彩云之星-云南金峰酒店具体评论" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南航空西双版纳观光酒店具体评论" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="滇池大酒店具体评论" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南民族博物馆具体评论" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南雅都商务酒店具体评论" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南饭店具体评论" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="擎天新悦酒店（云南昆明）具体评论" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南人家具体评论" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="喆啡酒店具体评论" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="湖景酒店具体评论" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南电网耀龙培训中心具体评论" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南航空迪庆观光酒店具体评论" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="金鹰大酒店具体评论" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="欧西尼亚商务酒店具体评论" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南风景线宾馆具体评论" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="清伴·滇池美宿（云南民族村店）具体评论" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="龚禧里·璞见酒店(昆明翠湖云南大学店)具体评论" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="昆明JOYOUS卓恩酒店·私享庭院（云南映象店）具体评论" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="夕月亮酒店（昆明同德广场财大店）具体评论" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="花筑·晋宁栖夕公馆民宿（七彩云南欢乐世界店）具体评论" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南咖啡吧具体评论" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南映象具体评论" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南民族村具体评论" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南市具体评论" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南沙溪古镇具体评论" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南石林地质公园具体评论" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南省具体评论" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南滇池温泉花园国际大酒店具体评论" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南震庄迎宾馆具体评论" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="七彩云南温德姆至尊豪廷大酒店具体评论" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="云南味具体评论" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="红塔大酒店具体评论" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="昆明世博花园酒店具体评论" sheetId="19" state="visible" r:id="rId19"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -599,486 +587,486 @@
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>云南映象</t>
+          <t>云南石林地质公园</t>
         </is>
       </c>
       <c r="B5" s="8" t="n">
-        <v>1438210</v>
+        <v>321177</v>
       </c>
       <c r="C5" s="9" t="n">
-        <v>301</v>
+        <v>1131</v>
       </c>
       <c r="D5" s="10" t="inlineStr">
         <is>
-          <t>https://www.tripadvisor.cn/Attraction_Review-g298558-d1438210-Reviews-Dynamic_Yunnan-Kunming_Yunnan.html</t>
+          <t>https://www.tripadvisor.cn/Attraction_Review-g1748704-d321177-Reviews-Yunnan_Stone_Forest_Geological_Park-Shilin_County_Yunnan.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>云南石林地质公园</t>
+          <t>云南映象</t>
         </is>
       </c>
       <c r="B6" s="8" t="n">
-        <v>321177</v>
+        <v>1438210</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>1131</v>
+        <v>300</v>
       </c>
       <c r="D6" s="10" t="inlineStr">
         <is>
-          <t>https://www.tripadvisor.cn/Attraction_Review-g1748704-d321177-Reviews-Yunnan_Stone_Forest_Geological_Park-Shilin_County_Yunnan.html</t>
+          <t>https://www.tripadvisor.cn/Attraction_Review-g298558-d1438210-Reviews-Dynamic_Yunnan-Kunming_Yunnan.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>云南民族村</t>
+          <t>云南丽江采菌体验【采蘑菇纯玩 私厨午餐 上门接送 私家线路 精品小队 专业领队 安全保障】</t>
         </is>
       </c>
       <c r="B7" s="8" t="n">
-        <v>379323</v>
+        <v>1003614669</v>
       </c>
       <c r="C7" s="9" t="n">
-        <v>512</v>
+        <v>19</v>
       </c>
       <c r="D7" s="10" t="inlineStr">
         <is>
-          <t>https://www.tripadvisor.cn/Attraction_Review-g298558-d379323-Reviews-Yunnan_Nationalities_VillageBenzilam-Kunming_Yunnan.html</t>
+          <t>https://m.tripadvisor.cn/Viator_Review-g303783-d1003614669-p0-s301.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>七彩云南温德姆至尊豪廷大酒店</t>
+          <t>腾冲旅拍【云南旅游团队跟拍腾冲/德宏/大理/丽江全程跟拍照片/视频/航拍】</t>
         </is>
       </c>
       <c r="B8" s="8" t="n">
-        <v>3249088</v>
+        <v>1003641969</v>
       </c>
       <c r="C8" s="9" t="n">
-        <v>1143</v>
+        <v>4</v>
       </c>
       <c r="D8" s="10" t="inlineStr">
         <is>
-          <t>https://www.tripadvisor.cn/Hotel_Review-g298558-d3249088-Reviews-Wyndham_Grand_Plaza_Royale_Colorful_Yunnan_Kunming-Kunming_Yunnan.html</t>
+          <t>https://m.tripadvisor.cn/Viator_Review-g1203543-d1003641969-p0-s301.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>云南滇池温泉花园国际大酒店</t>
+          <t>云南大理洱海动力三角翼/旋翼机飞行驾驶体验【飞行送免费视频/可选烧烤下午茶茶饼制作等其他活动】</t>
         </is>
       </c>
       <c r="B9" s="8" t="n">
-        <v>455584</v>
+        <v>1003599871</v>
       </c>
       <c r="C9" s="9" t="n">
-        <v>148</v>
+        <v>2</v>
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
-          <t>https://www.tripadvisor.cn/Hotel_Review-g298558-d455584-Reviews-Kunming_Dianchi_Garden_Hotel_Spa-Kunming_Yunnan.html</t>
+          <t>https://m.tripadvisor.cn/Viator_Review-g303781-d1003599871-p0-s301.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>云南味</t>
+          <t>云南丽江直升机空中游览基地/丽江直升机观光飞行【飞跃玉龙雪山/丽江古城/长江第一湾/虎跳峡/拉市海】</t>
         </is>
       </c>
       <c r="B10" s="8" t="n">
-        <v>3872232</v>
+        <v>1003608740</v>
       </c>
       <c r="C10" s="9" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D10" s="10" t="inlineStr">
         <is>
-          <t>https://www.tripadvisor.cn/Hotel_Review-g298558-d3872232-Reviews-Yunnan_Taste_Tourism_Service-Kunming_Yunnan.html</t>
+          <t>https://m.tripadvisor.cn/Viator_Review-g303783-d1003608740-p0-s301.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>昆明世博花园酒店</t>
+          <t>【丽江千古情】云南《丽江千古情》演出票（含景区）·茶马古道史诗【可选普通票/贵宾票+多场次自由选择】</t>
         </is>
       </c>
       <c r="B11" s="8" t="n">
-        <v>447263</v>
+        <v>1003595272</v>
       </c>
       <c r="C11" s="9" t="n">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="D11" s="10" t="inlineStr">
         <is>
-          <t>https://www.tripadvisor.cn/Hotel_Review-g298558-d447263-Reviews-Expo_Garden_Hotel_Si_Bo_Hua_Yuan-Kunming_Yunnan.html</t>
+          <t>https://m.tripadvisor.cn/Viator_Review-g303783-d1003595272-p0-s301.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>云南震庄迎宾馆</t>
+          <t>云南丽江玉龙雪山飞行基地/固定翼飞机驾驶体验【真机驾驶+资深机长一对一教学+束河古镇/白沙古镇免费接送】</t>
         </is>
       </c>
       <c r="B12" s="8" t="n">
-        <v>1178415</v>
+        <v>1003616006</v>
       </c>
       <c r="C12" s="9" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D12" s="10" t="inlineStr">
         <is>
-          <t>https://www.tripadvisor.cn/Hotel_Review-g298558-d1178415-Reviews-Yunnan_Zhenzhuang_Guest_House-Kunming_Yunnan.html</t>
+          <t>https://m.tripadvisor.cn/Viator_Review-g303783-d1003616006-p0-s301.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>云南大学</t>
+          <t>腾冲旅拍【云南腾冲旅拍【8小时酷车旅拍+当天底片全送+免费服装+24h精修】】</t>
         </is>
       </c>
       <c r="B13" s="8" t="n">
-        <v>2003315</v>
+        <v>1003652952</v>
       </c>
       <c r="C13" s="9" t="n">
-        <v>115</v>
+        <v>1</v>
       </c>
       <c r="D13" s="10" t="inlineStr">
         <is>
-          <t>https://www.tripadvisor.cn/Attraction_Review-g298558-d2003315-Reviews-Yunnan_University-Kunming_Yunnan.html</t>
+          <t>https://m.tripadvisor.cn/Viator_Review-g1203543-d1003652952-p0-s301.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>云南咖啡吧</t>
+          <t>云南丽江极速户外越野车体验/全套装备【丽江古城免费接送/赠送全程跟拍/团建优选】</t>
         </is>
       </c>
       <c r="B14" s="8" t="n">
-        <v>1217873</v>
+        <v>1003640331</v>
       </c>
       <c r="C14" s="9" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="D14" s="10" t="inlineStr">
         <is>
-          <t>https://www.tripadvisor.cn/Restaurant_Review-g303781-d1217873-Reviews-YunNan_Coffee_Ba-Dali_Dali_Bai_Autonomous_Prefecture_Yunnan.html</t>
+          <t>https://m.tripadvisor.cn/Viator_Review-g303783-d1003640331-p0-s301.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>云南小粒咖啡 香城咖啡</t>
+          <t>龚禧里·璞见酒店(昆明翠湖云南大学店)</t>
         </is>
       </c>
       <c r="B15" s="8" t="n">
-        <v>12685043</v>
+        <v>1003176210</v>
       </c>
       <c r="C15" s="9" t="n">
-        <v>12</v>
+        <v>2717</v>
       </c>
       <c r="D15" s="10" t="inlineStr">
         <is>
-          <t>https://www.tripadvisor.cn/Restaurant_Review-g670561-d12685043-Reviews-Yunnan_Arabica_Coffee-Shangri_La_County_Diqing_Tibetan_Autonomous_Prefecture_Yun.html</t>
+          <t>https://www.tripadvisor.cn/Hotel_Review-g298558-d1003176210-Reviews-G_Joyful_Pujian_Hotel_Kunming_Cuihu_Yunnan_University.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>华地王朝大酒店</t>
+          <t>云南民族村</t>
         </is>
       </c>
       <c r="B16" s="8" t="n">
-        <v>455587</v>
+        <v>379323</v>
       </c>
       <c r="C16" s="9" t="n">
-        <v>61</v>
+        <v>513</v>
       </c>
       <c r="D16" s="10" t="inlineStr">
         <is>
-          <t>https://www.tripadvisor.cn/Hotel_Review-g298558-d455587-Reviews-Dynasty_International_Hotel-Kunming_Yunnan.html</t>
+          <t>https://www.tripadvisor.cn/Attraction_Review-g298558-d379323-Reviews-Yunnan_Nationalities_VillageBenzilam-Kunming_Yunnan.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
-          <t>彩云之星-云南金峰酒店</t>
+          <t>云南省博物馆【2.5小时深度讲解/含门票预约/VIP精致小团】</t>
         </is>
       </c>
       <c r="B17" s="8" t="n">
-        <v>1212546</v>
+        <v>1003578682</v>
       </c>
       <c r="C17" s="9" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="D17" s="10" t="inlineStr">
         <is>
-          <t>https://www.tripadvisor.cn/Hotel_Review-g298558-d1212546-Reviews-YunNan_Jin_Feng_Hotel-Kunming_Yunnan.html</t>
+          <t>https://m.tripadvisor.cn/Viator_Review-g298558-d1003578682-p0-s301.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="inlineStr">
         <is>
-          <t>云南航空西双版纳观光酒店</t>
+          <t>七彩云南温德姆至尊豪廷大酒店</t>
         </is>
       </c>
       <c r="B18" s="8" t="n">
-        <v>602767</v>
+        <v>3249088</v>
       </c>
       <c r="C18" s="9" t="n">
-        <v>23</v>
+        <v>1188</v>
       </c>
       <c r="D18" s="10" t="inlineStr">
         <is>
-          <t>https://www.tripadvisor.cn/Hotel_Review-g528741-d602767-Reviews-Yunnan_Aviation_Sightseeing_Hotel_of_Xishuangbanna-Jinghong_Xishuangbanna_Dai_Autonomou.html</t>
+          <t>https://www.tripadvisor.cn/Hotel_Review-g298558-d3249088-Reviews-Wyndham_Grand_Plaza_Royale_Colorful_Yunnan_Kunming-Kunming_Yunnan.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="inlineStr">
         <is>
-          <t>滇池大酒店</t>
+          <t>夕月亮酒店（昆明同德广场财大店）</t>
         </is>
       </c>
       <c r="B19" s="8" t="n">
-        <v>1153427</v>
+        <v>1003224468</v>
       </c>
       <c r="C19" s="9" t="n">
-        <v>18</v>
+        <v>2399</v>
       </c>
       <c r="D19" s="10" t="inlineStr">
         <is>
-          <t>https://www.tripadvisor.cn/Hotel_Review-g298558-d1153427-Reviews-Dian_Chi_Hotel-Kunming_Yunnan.html</t>
+          <t>https://www.tripadvisor.cn/Hotel_Review-g298558-d1003224468-Reviews-Xiyueliang_Hotel_Kunming_Tongde_Plaza_Caidadian.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="inlineStr">
         <is>
-          <t>云南民族博物馆</t>
+          <t>云南滇池温泉花园国际大酒店</t>
         </is>
       </c>
       <c r="B20" s="8" t="n">
-        <v>379322</v>
+        <v>455584</v>
       </c>
       <c r="C20" s="9" t="n">
-        <v>64</v>
+        <v>148</v>
       </c>
       <c r="D20" s="10" t="inlineStr">
         <is>
-          <t>https://www.tripadvisor.cn/Attraction_Review-g298558-d379322-Reviews-Yunnan_Nationalities_Museum-Kunming_Yunnan.html</t>
+          <t>https://www.tripadvisor.cn/Hotel_Review-g298558-d455584-Reviews-Kunming_Dianchi_Garden_Hotel_Spa-Kunming_Yunnan.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="inlineStr">
         <is>
-          <t>云南雅都商务酒店</t>
+          <t>云南味</t>
         </is>
       </c>
       <c r="B21" s="8" t="n">
-        <v>596960</v>
+        <v>3872232</v>
       </c>
       <c r="C21" s="9" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D21" s="10" t="inlineStr">
         <is>
-          <t>https://www.tripadvisor.cn/Hotel_Review-g298558-d596960-Reviews-Mandarin_Hotel_Yunnan-Kunming_Yunnan.html</t>
+          <t>https://www.tripadvisor.cn/Hotel_Review-g298558-d3872232-Reviews-Yunnan_Taste_Tourism_Service-Kunming_Yunnan.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="inlineStr">
         <is>
-          <t>云南饭店</t>
+          <t>花筑·晋宁栖夕公馆民宿（七彩云南欢乐世界店）</t>
         </is>
       </c>
       <c r="B22" s="8" t="n">
-        <v>1212545</v>
+        <v>1003264123</v>
       </c>
       <c r="C22" s="9" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D22" s="10" t="inlineStr">
         <is>
-          <t>https://www.tripadvisor.cn/Hotel_Review-g298558-d1212545-Reviews-Yunnan_Hotel-Kunming_Yunnan.html</t>
+          <t>https://www.tripadvisor.cn/Hotel_Review-g298558-d1003264123-Reviews-Floral_Hotel_Jinning_Qixi_Mansion_Minsu.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="inlineStr">
         <is>
-          <t>擎天新悦酒店（云南昆明）</t>
+          <t>清伴·滇池美宿（云南民族村店）</t>
         </is>
       </c>
       <c r="B23" s="8" t="n">
-        <v>11487938</v>
+        <v>1003262814</v>
       </c>
       <c r="C23" s="9" t="n">
-        <v>2</v>
+        <v>368</v>
       </c>
       <c r="D23" s="10" t="inlineStr">
         <is>
-          <t>https://www.tripadvisor.cn/Hotel_Review-g298558-d11487938-Reviews-Qing_Tian_Xin_Yue_Hotel_Yunnan_Kunming-Kunming_Yunnan.html</t>
+          <t>https://www.tripadvisor.cn/Hotel_Review-g298558-d1003262814-Reviews-Qingban_Dianchi_Meisu_Dianchi_University_Fisherman_Village_Subway_Station_Branch.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="inlineStr">
         <is>
-          <t>云南人家</t>
+          <t>红塔大酒店</t>
         </is>
       </c>
       <c r="B24" s="8" t="n">
-        <v>4565076</v>
+        <v>1214535</v>
       </c>
       <c r="C24" s="9" t="n">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="D24" s="10" t="inlineStr">
         <is>
-          <t>https://www.tripadvisor.cn/Restaurant_Review-g298558-d4565076-Reviews-YunNanRen_Jia-Kunming_Yunnan.html</t>
+          <t>https://www.tripadvisor.cn/Hotel_Review-g1017091-d1214535-Reviews-Hongta_Hotel-Yuxi_Yunnan.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="inlineStr">
         <is>
-          <t>喆啡酒店</t>
+          <t>昆明世博花园酒店</t>
         </is>
       </c>
       <c r="B25" s="8" t="n">
-        <v>17627546</v>
+        <v>447263</v>
       </c>
       <c r="C25" s="9" t="n">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="D25" s="10" t="inlineStr">
         <is>
-          <t>https://www.tripadvisor.cn/Hotel_Review-g298558-d17627546-Reviews-James_Joyce_Coffetel_Kunming_Yunnan_University_Cuihu-Kunming_Yunnan.html</t>
+          <t>https://www.tripadvisor.cn/Hotel_Review-g298558-d447263-Reviews-Expo_Garden_Hotel_Si_Bo_Hua_Yuan-Kunming_Yunnan.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="inlineStr">
         <is>
-          <t>湖景酒店</t>
+          <t>云南丽江专业导游【中文-英语-韩语-日语-法语等导游服务/当地地陪导游/旅游陪同/云南全省多景点多地区选择</t>
         </is>
       </c>
       <c r="B26" s="8" t="n">
-        <v>6104345</v>
+        <v>1003560867</v>
       </c>
       <c r="C26" s="9" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D26" s="10" t="inlineStr">
         <is>
-          <t>https://www.tripadvisor.cn/Hotel_Review-g298558-d6104345-Reviews-Kunming_Green_Lakeshore_Hotel-Kunming_Yunnan.html</t>
+          <t>https://m.tripadvisor.cn/Viator_Review-g303783-d1003560867-p0-s301.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="inlineStr">
         <is>
-          <t>云南电网耀龙培训中心</t>
+          <t>云南香格里拉专业导游【当地地陪向导-旅游陪同-云南全境游景点免费设计-中英文等多种语种服务</t>
         </is>
       </c>
       <c r="B27" s="8" t="n">
-        <v>1115481</v>
+        <v>1003599941</v>
       </c>
       <c r="C27" s="9" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D27" s="10" t="inlineStr">
         <is>
-          <t>https://www.tripadvisor.cn/Hotel_Review-g298558-d1115481-Reviews-Yaolong_Hotel-Kunming_Yunnan.html</t>
+          <t>https://m.tripadvisor.cn/Viator_Review-g670561-d1003599941-p0-s301.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="inlineStr">
         <is>
-          <t>云南航空迪庆观光酒店</t>
+          <t>云南大理专业导游【中英文等多种语种服务-云南全境游景点免费设计-当地地陪向导-旅游陪同-旅游出行优选</t>
         </is>
       </c>
       <c r="B28" s="8" t="n">
-        <v>1407601</v>
+        <v>1003563380</v>
       </c>
       <c r="C28" s="9" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D28" s="10" t="inlineStr">
         <is>
-          <t>https://www.tripadvisor.cn/Hotel_Review-g670561-d1407601-Reviews-Yunnan_Airline_Aviation_Sightseeing_Hotel_Diqing-Shangri_La_County_Diqing_Tibetan_Auto.html</t>
+          <t>https://m.tripadvisor.cn/Viator_Review-g303781-d1003563380-p0-s301.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="inlineStr">
         <is>
-          <t>金鹰大酒店</t>
+          <t>昆明JOYOUS卓恩酒店·私享庭院（云南映象店）</t>
         </is>
       </c>
       <c r="B29" s="8" t="n">
-        <v>1212844</v>
+        <v>1003271690</v>
       </c>
       <c r="C29" s="9" t="n">
-        <v>9</v>
+        <v>317</v>
       </c>
       <c r="D29" s="10" t="inlineStr">
         <is>
-          <t>https://www.tripadvisor.cn/Hotel_Review-g298558-d1212844-Reviews-Golden_Eagle_Hotel-Kunming_Yunnan.html</t>
+          <t>https://www.tripadvisor.cn/Hotel_Review-g298558-d1003271690-Reviews-JOYOUS_HOTEL_KUNMING.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="inlineStr">
         <is>
-          <t>欧西尼亚商务酒店</t>
+          <t>云南震庄迎宾馆</t>
         </is>
       </c>
       <c r="B30" s="8" t="n">
-        <v>1194062</v>
+        <v>1178415</v>
       </c>
       <c r="C30" s="9" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D30" s="10" t="inlineStr">
         <is>
-          <t>https://www.tripadvisor.cn/Hotel_Review-g1152603-d1194062-Reviews-The_Oceania_Hotel_Yunnan-Chuxiong_Chuxiong_Yi_Autonomous_Prefecture_Yunnan.html</t>
+          <t>https://www.tripadvisor.cn/Hotel_Review-g298558-d1178415-Reviews-Yunnan_Zhenzhuang_Guest_House-Kunming_Yunnan.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="inlineStr">
         <is>
-          <t>云南风景线宾馆</t>
+          <t>云南咖啡吧</t>
         </is>
       </c>
       <c r="B31" s="8" t="n">
-        <v>1854572</v>
+        <v>1217873</v>
       </c>
       <c r="C31" s="9" t="n">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D31" s="10" t="inlineStr">
         <is>
-          <t>https://www.tripadvisor.cn/Hotel_Review-g298558-d1854572-Reviews-Yunnan_Fengjingxian_Hotel-Kunming_Yunnan.html</t>
+          <t>https://www.tripadvisor.cn/Restaurant_Review-g303781-d1217873-Reviews-YunNan_Coffee_Ba-Dali_Dali_Bai_Autonomous_Prefecture_Yunnan.html</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1113,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1151,110 +1139,44 @@
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
         <is>
-          <t>nice</t>
+          <t>云南好美</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>老板人很热情，帮忙规划旅行路线。环境很好，布置的很有特色，而且经济实惠，交通方便。可以放心入住。是去云南V旅行很好的中转地方。</t>
+          <t>我到了电视剧《去有风的地方》的取景地
+顺着剧情我到了大理的古镇，向阳的溪村，喜洲古镇，著名的洱海，沙溪古镇，凤阳邑。
+后面还在等追剧应该还有很多大理有名的地方。
+有一个片段让我印象深刻，是一个非常美的景色，是雪中的苍山，这座城市景色最吸引人的时候就是冬季。不会特别热感觉很清爽，能看到多种风貌的地质。主要是一个人静下心来享受很浪漫。我是一个喜欢住在海边的人，可是这里古老城池和村镇太有特色了，而且价格亲民，有一种古朴，小桥流水，宁静的大家宅院，少数民族风情的感觉，和电视剧《去有风的地方》里的女主住的地方几乎一模一样。这里还有很多步行街，也有商场超市，买东西很容易。
+众所周知 这里的热门景区古城，洱海，苍山。不过还有一些景区不论特色还是景色都不输上面几个。那就是
+1沙溪古镇：宁静的古镇，青山绿水环绕，环境优美，空气新鲜，少有人类干扰。
+2嵩圣寺：这里很像古代的皇室居住地，红墙青瓦，非常大。
+3喜洲古镇：这里非常漂亮，古老的街道，还有好多美女，金色的田地一望无际。简直就是诗词中的美景。
+在有些地方还能有机会乘坐三轮车非常有时代感。</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>宾至如归的歇脚处</t>
+          <t>云南丽江</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>我们一行五个人,风尘朴朴的由吉隆坡飞来昆明,展开十天的云南之旅.
-云南真是人间仙境,好山好水.中国地大物博,让我们开了眼界.....
-   香格里拉,大理,丽江,昆明有我们一行人留下的足迹,也希望在不久的将来,能够再回来云南! 值得一提的是民宿的主人是一位年轻有为的小伙子,虽然相处只有短短的十天,但是却如同多年的好友一般;谢谢您陪我们跑了将近2000公里,而且平安地把我们送回,我们后会有期.   Jeff.20.MAY.2014</t>
+          <t>丽江是一个美丽的地方。我想在有时间的时候可以去哪里看看 散散心。和自己的另一半在哪里度过美好的几天。我想它那里会给我们留下一些美好的回忆。</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>十分棒的民宿！</t>
+          <t>雪山下郊游</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>这是一个很舒服的民宿，床软、浴室大，老板会请你尝尝云南的特色食品，晚上甚至会邀请我们一起吃饭、闲聊，感觉自在、亲切。我会再回去的！</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>回家的感觉</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>我是一个人去云南的，选择云南作为自己的毕业旅行为自己的学生生涯画上一个完美的句号。我是在游多多那里找到这个家庭旅社的，当我下了订单后，老板就给电话告诉我店的情况以及路线，特感动。去了之后发现就像回家一样，三室两厅的套房改造的，房屋装饰很漂亮，极具云南风格的设计。旅社里很干净，老板天天早上都打扫，杯具洗的很干净摆放的很整齐，还有客厅的盆景很漂亮。云南味是很多国外游客首选的地方，在这里可以和国外游客聊天结伴出游什么的，老板的英语很棒。还有就是老板会是云南昆明人，对云南很熟，知道很多很不错的旅游路线以及各种特色小吃。</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>非常正点的旅馆！</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>老板人很好，周边位置也很方便，附近吃的喝的都有，服务很周到，睡得很舒服！从来没有想过可以在外头也有这么有家具feel的旅馆，下次去的话也会继续选择！</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>良心推荐</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>家庭式的，很温馨，很干净，老板每天早上起来都自己打扫房间。以前也住过民宿，都没有这家文艺。晚上大家在客厅聊天耍，其乐融融的特别嗨森。老板还会推荐攻略什么的，很好的人，很贴心周到。还木有老板娘哟，该抓住机会的搞快来~</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>很温馨，冯哥很有爱，已经推荐朋友住了，我会再来的</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>第一次来云南，第一次住客栈，运气超好碰到云南味！很喜欢这边哦，温馨！位置也不错，到哪里都方便，冯哥人特好，像大哥哥一样还给我安排行程，告诉我该注意的事情！住的很开心，不过就像一个大家庭一样，稍微有点吵，其他都不错</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>不仅仅是张床</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>蓝白扎染布，编麻拖鞋，每日的新鲜水果，凉水开水都备好，很周到；老板，导游，朋友，住在这里不仅仅是张床。谢谢凌晨四点半送我打车去机场。</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>很不错的家庭旅馆哦，适合各类驴友入住</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>很不错的家庭旅馆哦，适合各类驴友入住。店主是一名资深驴友，全国各地及至全球各地都在不少地方留下了他的身影，并且是骑行爱好者和倡导者。有相同爱好，或者喜欢旅行的朋友住在这里，还是很不错的。</t>
+          <t>云南玉龙雪山下有一些客栈，早晨起床仿佛身置世外桃源，丝丝缕缕的云烟环绕其中，但千万不要乱信导游说缆车要很长的排队，千里迢迢上去才值得。</t>
         </is>
       </c>
     </row>
@@ -1295,126 +1217,120 @@
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
         <is>
-          <t>闹中取静的世博花园酒店</t>
+          <t>繁华已成过去，唯有寂静留期名</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>地址：位于昆明市东北部的世博生态城中心区，属于盘龙区的世博路5号_x000D_
-交通：离机场距离10公里，离昆明火车站距离8公里，离市中心距离4公里，离世博花园距离1公里，尤其到机场来去的话在酒店旁边就有机场快线25元半小时不到就可抵达。_x000D_
-周边景点：世博园，金殿，以及野生动物园，徒步和公交都很近的。_x000D_
-服务：在世博上找到酒店，发现外观并不是很豪华，但进入后服务生很热情地帮你提行李并耐心等待你办理好入住手续后帮你送到房间里，在餐厅用餐时服务员也是很及时的清理你面前的脏盆，问及一些咨询事时都是笑容可掬。_x000D_
-客房：预定的是一号院的标准房，进入客房部后踏着长长的民族风的地毯进房间第一眼就是大床，白色和花色的床品让人眼前一亮，这样的色调是我喜欢的，床单等还算干净。第二亮点是阳台，不算很大的阳台上被放置了一套藤桌椅，适合在这里泡茶聊天，惬意的安排。不过对面的多功能厅如果有活动在进行的话，也是很嘈杂的。房间里的最三大亮点要数那相连房间的卫生间木格子窗户了，卧室和卫生间的相通点就是这窗户了，既可以很隐蔽也可以开放，呵呵，这个设计有点大胆。房间的WIFI是自动连接开放的，但一号院的信号不是很好。洗漱用品算一般吧，没多大特色，卫生间有点小，淋浴和浴缸是一起用的，浴缸显得有点陈旧了。浴袍浴巾还算看着新，不过颜色也有点泛黄了，可能是酒店使用的时间久了的缘故吧。墙上的画倒是很有艺术气息。房间里提供了两瓶免费用水，其他的要付费的东西都标明了价格，让客人可以一目了然的看见并决定是否使用，这个也透明化。在衣柜里有冰柜浴袍，不知为何还有两条蓝色的浴巾，卫生间里本来还有两条白色浴巾的。整体还算可以吧。_x000D_
-酒店设施：进入大厅是一束大大的白色如紫荆花的布置，清新典雅，旁边还有一个大大的旋转楼梯，这里经常会有婚宴举办。一楼的香草园是连接着一号院的客房部的，下来可直接进入餐厅，主要是自助餐为主，这几天正好在美食节，晚上每位168元还可以打8.8折。大厅的旁边大堂吧，有朋友来可以一起喝茶聊天的，二楼有各类型会议室和带同声传译的多功能会议厅等，这个对客房部有点影响的，尤其是二楼的那个多功能大厅，有会议举办的时候那个声响穿透力还是很强大的，如果房间窗户不关紧的话，很影响睡眠的。三楼有棋牌室、茶艺馆、健身房等，没找到室内游泳池，不过看见健身房就开心了。_x000D_
-整体印象：酒店设施有点陈旧了，但交通比较便捷，到机场有快线，到世博园和金殿野生动物园等地很近。个人觉得适合带着孩子们来看看这一带的世博园情况入住还是不错的选择。</t>
+          <t>沙溪，大理出滇北上的最后一站！老人们在门口喝着水烟筒！沧桑的眼眸中追忆着过去的繁华，沙哑的喉咙里哼着小调，传达出那时的故事！爱、恨、情、仇……</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>送世博的票</t>
+          <t>跨越4小时的车程，只为一睹你的美</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>位于世博园西门，入住这里是送门票的哦。而且推开窗就能看到园区，景色非常好。房间很新，室内花香味比较浓不自然，大堂的花香味比较好闻，而且入住还送了类似猫哆啦那种糖蛮不错的。</t>
+          <t>要从下关北站坐车去剑川，然后从剑川坐农村巴士去沙溪古镇，总耗时4小时左右，而且开的很快了，但是风景太美了，黑惠江周围，野鸭子野鹅，当地人放养的马构成了极为靓丽的风景线</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>俺很喜欢</t>
+          <t>意料之外地好</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>酒店像在花园里面一样，环境特别的好，而且后面就是世博园，入住酒店就不用买门票就可以去游园了，酒店的房间挺不错的，里面的设计以及设施都挺好的，可以说来住这家酒店真的挺值的，还给提供早餐，有特色的小吃，还有过桥米线，很正宗的</t>
+          <t>非常宁静祥和的小镇，最大限度地保留原貌的同时又有着水准较高的规划设计和提升改造（14年首批特色小镇），当地人民热情友好</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>性价比不错</t>
+          <t>茶马古道上的最后一个保留完整的古镇</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>酒店应该是因旁边的世博园而取名，入住酒店会送世博园门票，性价性高。酒店是园林式的酒店，房间干净舒适，在阳台上可以一边喝茶一边看外面的园林风景。周边很多吃喝的地方，酒店的早餐出口很不错，有一定的水准。</t>
+          <t>很小，很特别，要感谢那位发现并拯救她的博士。走出古镇发现外面的大片田野和汩汩的山泉水，这里很特别，很安静，也不容易抵达，车道也不好开，孤独星球推荐的，总要来一次，一次也就够了。</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>紧挨世博园，还送门票哦</t>
+          <t>入住的客栈里有许多宠物</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>酒店就在世博园的边上，出门散步就到了，而且还赠送门票，尽管世博园已经不像以前那么红火了，但能省门票还是不错的，这点酒店很人性化。酒店服务挺好的，维护得也不错，挺新，设施什么的都很齐全。房间比较大，大床房很舒服，还能看见世博园，空气相当好。</t>
+          <t>带着猫和狗一起，自驾游玩了这里。这个当年的古道驿站之地，现在仍然保留了古朴的风貌，小村子很安静，游客不多。在我们入住的客栈里，主人喂养有许多宠物，因此她认爽快地接受我们带宠物入住。在这里品尝了松茸鸡汤，味道很是鲜美的。</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>高性价比的五星级酒店客房</t>
+          <t>历史悠久的千年古镇，至今仍然保持着最原始的建筑特色。</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>入住昆明世博花园酒店，进入酒店宽敞的五星级客房就有给人眼前一亮的感觉，而每晚480元的团队价格更是诱人。午后坐在客房宽敞的阳台的藤椅上，泡上一壶普洱茶，微风佛面，眼前一片苍翠的林木，而又是那么的安静。</t>
+          <t>2001年10月11日，世界纪念性建筑基金会（WMF）在 美国 纽约 宣布， 中国 云南 沙溪 （寺登街）区域入选2002年101个世界濒危建筑保护名录（ 中国 同期入选的有万里长城、 上海 欧黑尔.雷切犹太教堂、 陕西 大秦宝塔和修道院）。名录中指出：“ 中国 沙溪 （寺登街）区域是茶马古道上唯一幸存的古集市，保存了完整无缺的戏台、客栈、寺院、寨门，使这个连接 西藏 和 南亚 的集市相当完备”。</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>在世博园的附近</t>
+          <t>沙溪应该名列中国古镇前三！</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>我们去世博转了一下，它离世博很近，我们就过去住了，我觉得它的房价还差不多，400多一个标准双人间，跟其他酒店也差不多，它有点像度假酒店，楼层也不高。我当时是坐出租车过去的，感觉挺方便的，要是在酒店打车的话，服务人员都有给打车，感觉还行。它的餐饮也还行，像有那个湖南的米线，其他的都是一般大众口味的。它这跟其他酒店比就是空气要好一点，但整体感觉旧了一点，服务态度还差不多，感觉蛮好的，但是酒店内部那个小卖部的烟是假的，一看就是假的。在这里只要住宿就会送世博园的门票的。</t>
+          <t>自然。商业气息还未完全掩盖古镇的淳朴。与周边环境融合完美。古镇内民宿都非常漂亮。古镇周围的村落适合步行。每周五这里还有热闹的集市。希望在那里住上十天半个月。</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>环境优美，早餐很好</t>
+          <t>古旧的超迷你古镇</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>除了距离市中心稍微远一点其他的没有问题的，但是酒店距离世博园是比较近的。门口的公交打车都是很方便的，距离火车站这些地方就是正常吧。房间的话各个方面的设施，配置都是比较齐全的，床、卫生间做的都是很不错的，摆设的话都是齐全的，总体感觉是不错的，休闲住的话是很好的，因为不在市区，很安静，旁边是公园，环境很好。酒店软件的话服务是不错的。亮点的话就是酒店的早餐是不错的，品种和质量都是很好的。</t>
+          <t>非常小的古镇，能看的地方不多，但是正因为小且交通不便，所以人不多。在这里发发呆，真心不错。还可以走走后面有小河和小桥。前面的人说寺登街是核心区域，其实是错的，害得我住的太远了。古戏台附近才是核心区域。</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>后面就是世博园不用买票</t>
+          <t>有特色的古镇</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>周围很多自助餐，十多块钱就可以的，都很便宜。酒店比较安静的嘛，位置偏了一点，朋友有车把我安排到那边，也就无所谓了，朋友有金卡，价格还是比较便宜的。房子后面就是世博园，从后面走进去都不用买票。如果领导过来的话酒店档次还是可以的，接待没什么问题的，是个五星级的价格也会比较便宜。这边都有早餐的，一般我都不会吃的，他们有中餐有自助餐，像过桥米线呀昆明的很多特色小吃，但是我都没有去吃。他们住店就是住店了，配套稍微差了点，没有三亚那边能去沙滩上散步呀或者游泳呀那么浪漫的事情，最好拿出几亩地来挖个泳池了。</t>
+          <t>这个古镇并不大，有一条街叫做是寺登街，为这个古镇的核心区域，卖的东西价格平易近人，在这里边可以待两个小时，很有民族风！</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>主要是环境相对好一点</t>
+          <t>清静好地方</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>主要是环境相对好一点，外部，内部都有，反正这里给我印象比较好，我过来还会来住的。房间装修比较有特点，反正这个阳台是花园式的，站在阳台上山水呀这些都可以看到，相对舒服一点。不过这个位置交通不太方便，这地方比较偏僻，打个车子都打不到，自己开车还差不多，车位也可以。</t>
+          <t>茶马古道之一，安静祥和，居民和善亲切，风光美，但交通上有些不便，但是值得前往住个几天，去大理可顺游此地。</t>
         </is>
       </c>
     </row>
@@ -1455,122 +1371,122 @@
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
         <is>
-          <t>震庄迎宾馆</t>
+          <t>不友善的旅游景点</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>走进大厅回廊，琥珀色地板和淡黄花纹墙体整体搭配，显出非凡的优雅气势。墙上装饰的大幅油画和如不经意间放置的复古大花瓶，乍到便已感受到时间在这座庄园遗留下的怀旧艺术气氛。装饰于墙体上的镂空雕花墙灯，和深褐色大门协调搭配，无不显出庄重之美。</t>
+          <t>昆明附近的石林风景区与西山公园是云南两个最传统的景点。石林门票极贵，如果要坐接驳车还要购票，加起来要200元人民币，相当昂贵。公园中有大小石林两区，各种奇石的确值得观赏。但是景区标示不清，如果没有导游，非常容易就会迷路，景区里的工作人员也相当冷漠，不愿意提供协助。最令人不🈵️的是如果接驳车的票券遗失了，还要再购买一次全票，全然是海削游客的操作。总体而言CP值很低。</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>昆明人都知道</t>
+          <t>独特而自然的地标，但太贵了！</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>在解放以前震庄宾馆是云南省主席龙云的府第，解放后一直用做接待政界人物的场所。_x000D_
-占地面积大，位于昆明市中心，不介意出行会堵车，又偏爱热闹的童鞋可以考虑选择，宾馆内环境不错，绿化得非常好，有浓浓的中式园林气息，服务员的素质大部分都可以给他们点赞，房间内设施棒棒哒！</t>
+          <t>你可以从昆明东汽车站乘坐大巴到达这里，昆明东汽车站位于地铁3号线和6号线（与机场相连）的交汇点。真是一个美丽的地方，岩石是天然形成的，道路维护良好。但是对于一个公园来说，人民币175元的价格太贵了。景点不错，但要注意价格。</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>老国营</t>
+          <t>阿诗玛的故乡</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>位置绝佳，就在东风广场附近。环境相当不错，园林式，环境也相当雅致。房间重新装修过，相当舒适。服务没有网上说的那么冷淡，基本还是可以满足需求的。政府接待场所，条件还是相当过硬，闹中取静，很好的选择。</t>
+          <t>如果来昆明石林地质公园还是需要看看的，来看看阿诗玛和阿黑哥。不过左看看右看看到处是石头，人山人海不太方便拍照片哦。</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>领导住的宾馆</t>
+          <t>石林风景区</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>酒店的环境很好，树木，草坪，绿化做的非常好，酒店的装修很中式化，有许多我们中国古风的元素，很漂亮的，酒店是专门接待政府的，听说许多国家领导人都住过那里，房间的卫生设施当然就不用说了，肯定没得挑，有自助餐，样式很多的，中西餐都有，味道非常不错的哦，交通也算方便，很满意的酒店</t>
+          <t>这个地方如果没有导游带领的话，非常容易进得去出不来，因为叉路非常的多，因为非常有名，所以人山人海，当你来到的时候希望你不要迷路。</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>老式国营宾馆</t>
+          <t>去了很多次，每次感受不同</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>我晚到了，超过六点就不给留房间了，非要信用卡担保。老式国营氛围，服务员不太热情，没有人帮忙拿行李。餐厅很贵，自助92一位。最近附近有施工。</t>
+          <t>去石林建议多留点时间给自己，不要跟着导游转一圈两个小时就出去，有很多东西还等着我们探索和发现。我们这次去刚好遇到冷天，没有呆多久就出来了，有些遗憾。</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>酒店位置不错，是以前政府接待用的</t>
+          <t>大小石林阿诗玛</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>房间还不算小，虽处市中心，但由于以前是大户人家的地盘，后来又是政府的迎宾馆，院子很大，很安静。早餐人不多，有米线、铒丝什么的，汤口不错。的确比以前住过的昆明饭店好。装修也不算太早。只是服务人员热情不足，但在内陆省份也算还好。</t>
+          <t>下午三点去的，时间有点赶，有些地方没有去，其实主要就是去看喀斯特地貌的特征及景观，如果请讲解的话，游览很快，如果有小朋友一起，建议请个讲解员，会告诉你石峰像什么，寓意什么，有些还是挺有意思的。我是一路听着别人家的讲解过来的，如果时间不赶，我会自己一点点感受，游览时间三小时到四小时吧，还是很值得去看看的</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>宾馆一感觉</t>
+          <t>非常一般的景点</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>第一次到云南，住在这里，第一感觉就是古香，很美，而且环境很舒适，让人很舒服的感觉，而且晚上很安静，容易入睡，就是地方有点偏</t>
+          <t>可能是去过土耳其的奇石林！因为奇石林像蘑菇很特别！但这里却像一座座小小的中国假山！加上虽然是春节过后，本地游客仍太多！完全不能投入赏景！</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>环境不错，服务一般</t>
+          <t>和同伴在这捉迷藏还是好玩的</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>环境不错，有个很大的园子，古色古香的。_x000D_
-服务一般，明显没有受过良好培训。两班交接时，前一班居然很多事情不和下一班交待。</t>
+          <t>是在昆明坐的大巴和几个驴友一起去的，好像是花了一个多小时。无需报团，到了景点自己购票就可以了。石林矗立，还是很壮观很有特色的，在昆明停留的话，还是值得一去的。</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>国宾馆里算很不错的，态度好，环境好</t>
+          <t>鬼斧神工</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>环境很优雅，小桥流水的，会议室很有中国风，服务态度不错，很热情，相对其他国宾馆平平的服务态度来说相当不错。专门的政府接待酒店，而且位于市中心，交通方便，房间也可以。</t>
+          <t>是我去过的第一个中国国家地质公园，大千世界无奇不有，大自然怎么能造出如此神奇的地方，这究竟要孕育多少力量？
+春节期间，游客太多太多，可能平日去可以放慢脚步去欣赏</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>设施比较人性化</t>
+          <t>石林九乡溶洞一日游</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>服务比较好，比较周到，比较人性化，保险柜，冰箱都有，房间里面的用品质量方面都比较好，用着很舒服，房间舒适度很舒服，卫生也很好，到处都是听卫生的，周边环境挺好的，地理位置在市中心，交通还凑活，不是太好，到处高新建，到处修地铁修路，交通不是很便利。</t>
+          <t>昆明到石林的大巴很多，最后一班从石林返回昆明是下午5:30。九乡没有大巴回昆明，所以建议早上从昆明到石林后，与人拼车先去九乡，大约一人30元。石林到九乡大约40分钟车程。玩了九乡溶洞，下午玩石林，会比较好控制回昆明的大巴时间。石林巴士站下车后就会有人来询问要不要拼车去九乡。两个地方一起一日游最好自备午餐，节省用餐时间。一定要穿一双好走的鞋。
+石林风景区相当整洁美丽，如果赶时间，加买电瓶车，三个小时足够逛完。</t>
         </is>
       </c>
     </row>
@@ -1611,124 +1527,122 @@
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
         <is>
-          <t>云大不虚此行</t>
+          <t>天空是那么的蓝、那么的纯净</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>国内千篇一律现代风格的大学，这里真正大师手笔。非常适合静静瞻仰。南门入，东边腾蛟西方起凤牌坊，名不虚传，进校就感觉满满的历史感。。旅行指南推荐这个"景点"，就看看。一切都掩映在绿树中，学生们在草坪上读书。</t>
+          <t>今年年假去了趟云南，从丽江出发往香格里拉，当踏上这一片净土，站在仅有蓝天与大草原之间，感受心情向大自然中奔放，那一切的美好的感受一直留恋到今。</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>绿树成荫</t>
+          <t>美丽的云南丽江!</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>旅行指南强烈推荐这个"景点"，就过去看看。对校园的第一印象就是一切都掩映在绿树中，学生们在草坪上小憩或读书，有种与众不同的感觉。但建筑不够精致，没有让人难忘的魅力。</t>
+          <t>丽江,城市很美,生活很惬意舒适, 环境很好!都不想回来了! 那里有热情好客的白族姑娘,有班驳的石子路,有玉龙雪山,有小资情调的酒吧,夜晚红色的灯笼高高挂着,映衬在小溪水上,别有一番情趣! 这里是一处远离烦嚣的人间仙境!</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>文艺又复古，还有小松鼠～</t>
+          <t>云南之旅</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>著名的云大果然名不虚传，进校就感觉满满的历史感。。银杏大道已经落的差不多了，没赶上最好看的时候。。偶遇一个女学生在喂松鼠，看我们很有兴趣也给了我们一把松子，在树下举一会就有胖胖的松鼠跑下来吃，特别可爱～</t>
+          <t>云南，首先要去石林，2亿多年前的海底世界；再去西双版纳，野象谷一定不能错过，运气好的还能看见野象，晚上还有篝火晚会恭候着大家；其次去大理，看看崇圣寺三塔，走走天龙八部影视城，逛逛蝴蝶泉，然后坐着大游轮去了解一下古代的南诏国；最后一站丽江，远望玉龙雪山，来到丽江古镇，晚上坐在一米阳光的角落听着音乐，或跟着舞池的人一起摇摆，结识一帮酒友，喝个不醉不归。听人家说香格里拉是个不错的地方，那可是人间仙境，神仙居住的地方，可是我们是凡人，那样的地方我们居住不了，也就没去了。这次旅行愉快的Over了！</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>昆明必打卡其一</t>
+          <t>映像云南</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>看过了国内千篇一律现代风格的大学楼房，这里你能目睹真正大师手笔。校园不大，徒步可以逛完几个主要景点。节假日，校园学生不多，游客也少，非常适合静静瞻仰历史。推荐南门入，东边腾蛟西方起凤牌坊，正中是95级台阶，象征九五之尊。上去之后就是文泽院，至公堂，东边是前校长故居，西边有钟塔，还有梁氏夫妇设计的映秋院泽清堂。之后从北边出去就可以到达西南联大旧址。</t>
+          <t>有些时候，我们往往生活在都市里看不到真正的生态平衡。去过云南昆明，在那里家家都有花，处处都有绿。让你放松的走在街道上，偶尔会看到几个少数民族的女孩在挑着扁担做生意。那里的人生活的很悠闲，阳光很暧，不用早起，因为八点天还没有亮，好多水果是我们北方人少见的。还想去一次。</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>建筑物挺古色古香</t>
+          <t>我们</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>云南大学位于昆明市靠北的地方。_x000D_
-入到去都觉得几有书卷气, 行系入面都几写意, 而且建筑物挺古色古香。</t>
+          <t>昆明是个美丽的城市，那里的环境让我觉得很舒适，很朴实，我想因为平凡，所以简单， 因为简单，所以幸福，不同的文化，不同的风格，不同的情愫…</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>云南大学内溜达</t>
+          <t>天之涯，云之南，我心之往</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">这所大学是抗战时期为了容纳从各地逃难来的学生所兴建。校园是建造在一个小山坡上，所以骑脚踏车有一些辛苦。 </t>
+          <t>上次去云南是去年的时候是去年秋天，以前对云南美景的耳濡目染是我对此次出游充满憧憬和期待，我们去了丽江 昆明 泸沽湖等景区，深深的感受到了云南特有的纯净和与众不同，如果还有机会我还是愿意重返云南，那个我阅之千遍也不厌的地方</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>古意盎然的昆明高等学府</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>我在七月初到访,学生放暑假了,古意盎然的教室,悄没人烟~~
-校园在翠湖畔,看完讲武堂,游完翠湖公园,可以顺道到云南大学走走~
-是座很有历史的高等学府,斑剥的红砖造教室大楼很有历史美感!
-走在翠木苍松的校园里,时间仿佛回到学生时代,古老的校园,松鼠快乐的在松柏上跳跃,心情是很舒畅愉悦的~~</t>
+          <t>很美丽的一个地方。去的时候刚好下过一场小雨，空气特别清新。一切 都那么纯净那么舒适，疲惫的心因此得到释放。那一张张和善的笑脸如今还深深的映在我心里</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>古典与现代结合的地方</t>
+          <t>~~再次回味~~</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>云南大学里面有很多古老的建筑，例如独特的钟楼。春天绿意盎然，看到学生、老师、游客穿梭在校园，别有一番体会。可惜这次去的时候樱花已经落得差不多了，不然还可以赏樱。另外校园外的文化巷有很多文青特色小店，有书店有美食有酒吧，校园周围十分方便。</t>
+          <t>去年公司集体旅游风声一出来~我们所有的人一致认定云南~可惜时间仓促没能让我好好体验下洱海的温柔~古城的幽静~雪山的壮观~石林的艺术~好像再一次回去慢慢体验哇~</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>大美云南大学</t>
+          <t>美~</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>走到哪里都喜欢去当地的大学走走，云南大学植被繁茂四季常青，骑上单车在校园里逛一圈整个人也仿佛再回青春，甚至喜欢。</t>
+          <t>热爱春城昆明的花开不败，沉醉于浪漫丽江的柔软时光，_x000D_
+坐享泸沽湖梦境般的湖光山色，观赏大理苍山洱海的壮阔美景。_x000D_
+一句话美不胜收。</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>古色古香的校区</t>
+          <t>值得一去</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>周六下午去的，进入没有保安阻拦。不确定平时一到五，是不是也如此。校园内花木繁盛，阳光和煦。多座省级重点文物建筑坐落其间，颇有民国风情。</t>
+          <t>2005年的夏天，我先到了腾冲热海，和顺；然后去了大理，大理也不是不错的地方；之后去了丽江，丽江古城给我留下了很好的影印，但印象最深的还是黑龙潭，喜欢这里，真的值得你一去。</t>
         </is>
       </c>
     </row>
@@ -1743,7 +1657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,85 +1683,133 @@
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
         <is>
-          <t>还可以</t>
+          <t>房间及其老旧！</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>人民路应该是大理很繁华的一条街，商铺餐厅林立。这家餐厅卖的品项很多，我点了一个炒饭，炒饭的地镬气还不错。</t>
+          <t>这个酒店完全是因为第二天想逛逛滇池，所以顺便订了这家。
+但是，真的是好老好老。
+酒店位置确实是十分优越，步行过街就可以到滇池，随时出门逛逛。
+自身环境也是很不错的，园林式设计，湖景和花园都很漂亮，建筑的外墙是经过翻新的，所以看起来特别有欧式的洋气，拍照啊什么的都很好看的呢。
+但是！
+酒店房间内部是十分的老旧，难怪也就这个价格，最冤枉的是在携程订了之后，发现点评网的价格便宜大半，瞬间石化！不能退！
+自认倒霉！
+房间的布置和硬件设施真的是旧到爆炸！也就古老的招待所水平！
+实在是太凑合了。！
+但是房间的阳台美景真的是太太太好看了！就是一副风景画！
+建议感觉翻新内部，然后涨价！
+早餐很凑合！</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>人气不足</t>
+          <t>非常亲切</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>里面有驻店的歌手，听听歌曲，喝喝鸡尾酒，聊聊心事，很有感觉的。不过这家店感觉晚上人气不足，歌手很早就走了，老板调酒也比较慢，可能和这里的慢节奏有关吧。</t>
+          <t>服务人员非常亲切，地点超好，连吃三天早餐，菜色都有小小的变化，因为我吃素，每天都可以吃到不同口味的炒饭，甚至还有炒米粉，超开心～！</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>-个人坐坐一个小时还是可以的</t>
+          <t>还可以</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>咖啡吧也开了酒吧，闲逛古城看到没有民谣和摇滚歌手就滚进来喝杯酒。环境不错，清静幽暗的酒吧风格，-根蜡烛照亮案头，没有别的顾客，点一杯椰林飘香，浓浓的椰香味稠稠的口感，还可以。薯条小吃一般，不过分量很多啊。</t>
+          <t>酒店还可以，晚上有点儿凉。距离滇池挺近，主要是滇池景色挺好看的，还有海埂大坝，听说再一个月就海鸥来了。</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>还行</t>
+          <t>很典型的中国旧式国营风格酒店，非常美丽的景色</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>生日的时候和朋友去过一次，服务不错，菜品的话，还是觉得蘑菇牛排最好吃，整体评价下来还行吧。来大理的话强烈推荐哦</t>
+          <t>因为参加会议，主办方安排来这里入住。房间干净整洁，面积相当不错，但是卫生间面积较小，很拘谨，热水舒适。酒店整体非常非常美，环境、景色都是一流。离一些景点也很近，但是体会不到服务的热情和意识，整体入住感受一般。</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>还不错</t>
+          <t>环境很好</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3月份的时候晚上9点多了，我们才到了这里，舒服的度过了2小时，这里的服务很不错，轻言细语，讲得很是温新，在这里可以见到各国的朋友，很是热门，推荐！！！！！！！！！！！！</t>
+          <t>酒店环境没得说，超级一流，房间也还算不错，只是有些房间需要走得远一些，酒店大堂的玉器店不错，比我在版纳买的还便宜</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>还可以的</t>
+          <t>客房设施相当陈旧</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>味道还不错两个人晚上9点喝到11点两个多小时吧。味道还得，环境也还算是不错的了，服务态度也很好，可以就是我们去的时候基本上没人~~~~~</t>
+          <t>酒店位置非常好，离滇池很近，旁边就是民俗村，酒店内部很漂亮，自己挖了一个池子，绕着池塘遛弯很舒服。_x000D_
+酒店只有5层，好像没有电梯，高原地区爬楼要小心，不能太快，不然会有反应。_x000D_
+客房只能说是一般般了，房内设施非常陈旧。房卡有特色，只有普通房卡的一半大。据说要翻修了，不然以目前的设施配置，配不上标称的星级水平。</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>食物很棒,气氛超赞</t>
+          <t>大花园</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6个人来这儿吃了晚餐,很享受。尤其是蘑菇牛排和腰果鸡丁,味道超赞。只不过,匹萨只能算好吃而已(不是特别棒)。服务员英语说得很好,会给你提很好的建议。东西几乎是同时上的,很让人惊喜。
-可以坐在露台的座位上,很棒。明天还来!</t>
+          <t>花园式的酒店，环境好，绿化很好草地上刚刚撒了草子，嫩嫩的小草才冒出来。大堂里面，陶瓷的大花瓶里装满了梅花，味道很香办理完手续，走进电梯里面都有香味，房间里面有红木的家具，显得上档次，电视信号不是很好啊，有些台清楚。</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>环境优美的酒店</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>这家酒店环境非常美，到处是鲜花和绿植，风格很像东南亚一带的度假村。几乎每个房间都能看到风景。看到有几对新人在酒店里拍婚纱照。因为酒店在民族村旁边，所以刚好借到民族村的湖景。酒店有好几个餐厅，餐饮都非常棒，提供云南当地的特色美食。酒店位置也很好，旁边是海埂公园，另一边是民族村。房间也够大，唯一美中不足的是，房间没有空调，冬天会有些冷。</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>花园里的酒店</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>酒店在云南民族村对面，酒店的楼都联通着环湖而建，房间都面冲内湖，鲜花、绿植、湖水，环境优美，但是房间比较阴暗，硬件较差，酒店餐厅包间可打开窗门，就像在院子吃饭，很是舒服，但是云南特色菜较少，菜价不低。</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>风景如画乐不思家</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>酒店真的很别致，床，桌子都是用藤条制成的，住起来感觉回到了古代似的，酒店又在滇池的边上，环境特别好，房间的卫生很好，还可以在房间里面泡温泉，房间外面有个阳台，在阳台欣赏滇池的美景，真的好喜欢这家酒店，都不想走了。</t>
         </is>
       </c>
     </row>
@@ -1862,7 +1824,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1888,24 +1850,122 @@
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
         <is>
-          <t>小圆豆更香醇</t>
+          <t>震庄迎宾馆</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>独克宗古城拐角上的小店，既是饮品店也出售各种咖啡，花草茶和杯碟。我们分别点了小圆豆和AA级，AA级的口感偏酸，我点的小圆豆更香醇一些，适应苦味以后还是选择了不加奶和糖，怕破坏原有的味道。</t>
+          <t>走进大厅回廊，琥珀色地板和淡黄花纹墙体整体搭配，显出非凡的优雅气势。墙上装饰的大幅油画和如不经意间放置的复古大花瓶，乍到便已感受到时间在这座庄园遗留下的怀旧艺术气氛。装饰于墙体上的镂空雕花墙灯，和深褐色大门协调搭配，无不显出庄重之美。</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>不错喝的咖啡</t>
+          <t>昆明人都知道</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>逛香格里拉独克宗古，一方面因天冷(刚下过雪)，一方面因商店有营业的约一半，所以就找间咖啡店喝咖啡，云南小粒咖啡 还不错喝。</t>
+          <t>在解放以前震庄宾馆是云南省主席龙云的府第，解放后一直用做接待政界人物的场所。_x000D_
+占地面积大，位于昆明市中心，不介意出行会堵车，又偏爱热闹的童鞋可以考虑选择，宾馆内环境不错，绿化得非常好，有浓浓的中式园林气息，服务员的素质大部分都可以给他们点赞，房间内设施棒棒哒！</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>老国营</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>位置绝佳，就在东风广场附近。环境相当不错，园林式，环境也相当雅致。房间重新装修过，相当舒适。服务没有网上说的那么冷淡，基本还是可以满足需求的。政府接待场所，条件还是相当过硬，闹中取静，很好的选择。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>领导住的宾馆</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>酒店的环境很好，树木，草坪，绿化做的非常好，酒店的装修很中式化，有许多我们中国古风的元素，很漂亮的，酒店是专门接待政府的，听说许多国家领导人都住过那里，房间的卫生设施当然就不用说了，肯定没得挑，有自助餐，样式很多的，中西餐都有，味道非常不错的哦，交通也算方便，很满意的酒店</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>老式国营宾馆</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>我晚到了，超过六点就不给留房间了，非要信用卡担保。老式国营氛围，服务员不太热情，没有人帮忙拿行李。餐厅很贵，自助92一位。最近附近有施工。</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>酒店位置不错，是以前政府接待用的</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>房间还不算小，虽处市中心，但由于以前是大户人家的地盘，后来又是政府的迎宾馆，院子很大，很安静。早餐人不多，有米线、铒丝什么的，汤口不错。的确比以前住过的昆明饭店好。装修也不算太早。只是服务人员热情不足，但在内陆省份也算还好。</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>宾馆一感觉</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>第一次到云南，住在这里，第一感觉就是古香，很美，而且环境很舒适，让人很舒服的感觉，而且晚上很安静，容易入睡，就是地方有点偏</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>环境不错，服务一般</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>环境不错，有个很大的园子，古色古香的。_x000D_
+服务一般，明显没有受过良好培训。两班交接时，前一班居然很多事情不和下一班交待。</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>国宾馆里算很不错的，态度好，环境好</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>环境很优雅，小桥流水的，会议室很有中国风，服务态度不错，很热情，相对其他国宾馆平平的服务态度来说相当不错。专门的政府接待酒店，而且位于市中心，交通方便，房间也可以。</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>设施比较人性化</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>服务比较好，比较周到，比较人性化，保险柜，冰箱都有，房间里面的用品质量方面都比较好，用着很舒服，房间舒适度很舒服，卫生也很好，到处都是听卫生的，周边环境挺好的，地理位置在市中心，交通还凑活，不是太好，到处高新建，到处修地铁修路，交通不是很便利。</t>
         </is>
       </c>
     </row>
@@ -1946,126 +2006,124 @@
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
         <is>
-          <t>安静整洁好酒店</t>
+          <t>开会</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>昆明是个美丽的城市，尤其和雾霾帝都比较起来。酒店安静整洁，服务员彬彬有礼，中餐做得也不错。唯一缺点就是没有健身设施。</t>
+          <t xml:space="preserve">	1.	酒店位置超便利，步行可达商圈！房间干净整洁，床品柔软好眠，陈松服务热情贴心，还送了欢迎水果，性价比超高，下次来还选这！
+入住体验超棒！装修精致有格调，卫生细节满分，隔音效果好超安静。早餐种类丰富美味，工作人员随叫随到，强烈推荐！</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>商务经济型酒店</t>
+          <t>出差</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>因为出差地点离酒店近的缘故选择了这个酒店，作为四星酒店，价格倒是不错，但是酒店明显老旧了，最糟糕的是夜里被隔壁的KTV吵得睡不着觉。酒店服务员倒是不错，总之，蛮适合商务出差的。</t>
+          <t>第一次来昆明旅游，在朋友的推荐下入住了昆明七彩云南温德姆至尊豪廷酒店，酒店高档奢华，非常大气，酒店礼宾小童服务很好！</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>吃了饭还可以</t>
+          <t>出差</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>没有在里面住过，只在中餐馆吃过饭，味道只能算还可以，没有什么特别好吃的也不难吃。作为一个四星级酒店，门口太小了没有院子。</t>
+          <t>酒店位置非常好，在朋友的推荐下入住了昆明七彩云南温德姆豪庭酒店，酒店早餐不错，旁边就是商业中心，很方便，物超所值。</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>高级的酒店</t>
+          <t>岀差</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>跟着老板去出差才有机会跟着入住的，店内装潢舒适、气派。那次是第一次入住，卫生那就不用说了，一级服务，处在中心地段但隔音很好，属于真正的4星级酒店</t>
+          <t>酒店环境优雅，礼宾部童世伟主动热情服务周到细致，房间宽敞明亮，床品柔软舒适，早餐丰富多样，让人流连忘返，强烈推荐！</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>服务很好可惜晚上会有KTV声响</t>
+          <t xml:space="preserve">出差
+</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>这间酒店住了两次，一次7楼，一次9楼，这边晚上3楼4楼会有KTV的声音，大到可以跟着唱（晚上11点半），饭店人员态度很好也积极帮忙处理，但是唱歌的人毕竟不是他们，一样高歌到12点（4楼），3楼则是唱到1点半左右，如果习惯晚睡倒是没影响。
-若是入住就是要休息的人，建议高楼层比较好，但是就得加钱了。总之7楼绝对是没有良好睡眠品质的，然后服务人员整体而言都很尽心了，就是3、4楼作为KTV让人无法入睡或是不加强隔音的酒店的问题了。
-一分钱一分货，不幸睡到低楼层的也可以跟他们要耳塞（实在解决不了，所以酒店人员最后要提供我耳塞了），还没睡过10楼以上（9楼还是能听歌声听到12点），可能高楼没这种困扰了。
-这次不幸刚好遇到，唱歌的人也不愿意降低音量（还提高了音量），我只好一边听着他们高昂的歌声一边给评度过这个无法入眠的夜晚。</t>
+          <t>礼宾Jacky热情专业，客房整洁温馨，床品柔软舒适，智能设施齐全，隔音效果极佳。早餐中西结合，品种丰富味道赞，地理位置优越，出行购物便捷。</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>服务很好可惜很吵</t>
+          <t>出差</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>第一次住九楼一直隐约听到很大声的唱歌声，这次住七楼，连唱什么歌都一清二楚了！隔音之差完全无法入睡！第一次住没烟味，第二次忽然就有很浓厚的烟味飘进房间，配合唱歌声，还以为自己在什么奇怪场所？！除此之外一切都好，就是不得安宁。完全无法好好睡的饭店，设备再好也枉然。</t>
+          <t xml:space="preserve">第一次入住昆明温德姆酒店 中式装修风格 高端大气 酒店周边商圈成熟 出行也很方便 酒店服务也很不错 尤其是礼宾小哥康泰 </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>装修新颖</t>
+          <t>出差</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>酒店的装修很华丽，设施都还很新，住的是单人间，是我最爱的圆床，床的软软很非常的舒服，房间很宽敞，沙发、液晶电视、还有大大的窗户通风非常的好，即使不开空调也不会感觉很热，卫生更是没得挑，打扫的很干净，唯一遗憾的是酒店的位置有些偏僻，交通不是很方便。</t>
+          <t>第一次来到这家酒店感觉环境和服务都非常的不错，每个环节做的都很细，尤其是门口的服务员王浩冉很热情周到，很耐心。</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>很温馨的酒店</t>
+          <t>出游</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>酒店在昆明高新区，出差办事住比较方便。酒店客房布置的很温馨，灯光效果很好，不是很亮，但每个角落都有光亮。酒店的热水很好，洗澡很舒服。</t>
+          <t>地处昆明南市区滇池路核心商圈，步行可达南亚风情第一城，距滇池、西山等景点约5公里，位置便利。374间客房宽敞整洁，床品舒适，配套设施齐全。员工服务热情，会提供特色欢迎茶点及免费停车等服务。酒店设多个餐厅、健身房、室内泳池等休闲设施，会议场地完备。不足是门口打车稍难，个别房间偶有设施小故障，但维修及时，整体性价比高</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>打车不方便</t>
+          <t>出差</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>环境、里面卫生各个方面我觉得都还可以，地理位置一般，晚上的时候出去打车不是很好打，服务态度也不错，早餐是免费提供的，但是我没有吃，硬件设施也可以，电梯各方面都有吧，因为我出差比较少，在我印象中这家酒店还不错。</t>
+          <t>礼宾童世伟热情专业，服务周到贴心。房间干净整洁，设施齐全好用。位置交通便利，环境安静舒适。入住体验超棒，下次还会选择！👍</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>开发区唯一的高星级酒店</t>
+          <t>旅游</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>住了十几次了，由于高新区没有其他好酒店，每次到昆明项目都在这个酒店。_x000D_
-同等价位酒店中，早餐还算不错，卫生做得很好，拖鞋等用具很舒服，超越了价格应有的水平。_x000D_
-电梯有点儿少，而且走廊长，如果房间离电梯远出行要不少时间。不过貌似另一个电梯快可以投入使用了。_x000D_
-不是很好找，开车到达还算方便了。</t>
+          <t xml:space="preserve">房间宽敞明亮，床品柔软舒适，隔音极佳，一夜好眠。位置好，步行五分钟到地铁，楼下就是商场。性价比之王，下次还会再来！
+房间安静舒适礼宾部AIan服务贴心周到，早餐丰盛美味，位置交通便利，性价比超高，下次还会选择！
+</t>
         </is>
       </c>
     </row>
@@ -2080,7 +2138,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2106,124 +2164,110 @@
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
         <is>
-          <t>还可以</t>
+          <t>nice</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>酒店的地理位置比较不错的，旁边有家乐福超市，百货商场，买东西还挺方便的，房间的大小挺合适的，安全性也比较高，住起来感觉很温馨的，隔音效果不是很好，会感觉有一些小吵，早餐的样式不是很多，味道也一般啦。</t>
+          <t>老板人很热情，帮忙规划旅行路线。环境很好，布置的很有特色，而且经济实惠，交通方便。可以放心入住。是去云南V旅行很好的中转地方。</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>服务效率高，房间光线好</t>
+          <t>宾至如归的歇脚处</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>我们去云南游玩的第一站就是昆明，昆明地方不大，这家酒店也是网上提前就帮我们订好的，后来放了行李出来逛的时候，发现地理位置不错，离超市和吃东西的地方都不远，而且那边打车的价格也比无锡要便宜，酒店的卫生还是挺好的，应该经常接待旅行团吧，很有经验的样子，前台办事效率很高，一会我们就拿到钥匙进房间了，房间很宽敞，有窗户把窗帘拉开，房间里的光线很好。床单枕套，卫生间都很干净，我觉得旅行社安排下这样的价格和酒店的配套设施还是很不错的。</t>
+          <t>我们一行五个人,风尘朴朴的由吉隆坡飞来昆明,展开十天的云南之旅.
+云南真是人间仙境,好山好水.中国地大物博,让我们开了眼界.....
+   香格里拉,大理,丽江,昆明有我们一行人留下的足迹,也希望在不久的将来,能够再回来云南! 值得一提的是民宿的主人是一位年轻有为的小伙子,虽然相处只有短短的十天,但是却如同多年的好友一般;谢谢您陪我们跑了将近2000公里,而且平安地把我们送回,我们后会有期.   Jeff.20.MAY.2014</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>购物挺方便</t>
+          <t>十分棒的民宿！</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>旁边就有家乐福，购物挺方便的，小商场挺多的。酒店里面是可以吃饭的嘛，早餐要另外加钱的。服务员比三叶饭店好多了，有什么需要的话能及时的给提供，办理入住手续时前台的服务效率挺快的，态度也挺热情的。房间的卫生也是好的，房间内的装修风格有点像欧式的那种，床单和被罩是白色的，电视、沙发、衣柜都有的，地板是铺的地毯，地毯也干净，隔音也挺好的，没像三叶那边吵，楼道有人说话也听不见，房间的空间大小差不多，十多平是有的。性价比都差不多了，这个价格是可以接受的，在昆明这样差不多的房间都是这个价，床挺舒服的，床是软的。</t>
+          <t>这是一个很舒服的民宿，床软、浴室大，老板会请你尝尝云南的特色食品，晚上甚至会邀请我们一起吃饭、闲聊，感觉自在、亲切。我会再回去的！</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>地理位置比较好的</t>
+          <t>回家的感觉</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>这是旅行社推荐的酒店，我觉得他家的那些服务还有餐点以及房间的装修我都比较喜欢的，我们是7点半的飞机，当时我们的手机又没电，也没有开机，他们还上去叫了我们的门，来提醒我们，因为我们都不喜欢起早，我们这边的人都习惯懒一点，结果起来的时候已经是10点过了，没有吃到他家的早点，这里房间的装修也还是比较大众一点的那种，我喜欢他家那个洗脸的脸盆，比较大，感觉比较舒服，酒店的价格从他的配套来说还可以接受，他的地理位置还是比较好的，如果去那边的正义路买衣服之类的，去百货商场都比较好，比较近，周边的配套挺齐全的，交通也便利。</t>
+          <t>我是一个人去云南的，选择云南作为自己的毕业旅行为自己的学生生涯画上一个完美的句号。我是在游多多那里找到这个家庭旅社的，当我下了订单后，老板就给电话告诉我店的情况以及路线，特感动。去了之后发现就像回家一样，三室两厅的套房改造的，房屋装饰很漂亮，极具云南风格的设计。旅社里很干净，老板天天早上都打扫，杯具洗的很干净摆放的很整齐，还有客厅的盆景很漂亮。云南味是很多国外游客首选的地方，在这里可以和国外游客聊天结伴出游什么的，老板的英语很棒。还有就是老板会是云南昆明人，对云南很熟，知道很多很不错的旅游路线以及各种特色小吃。</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>很舒服</t>
+          <t>非常正点的旅馆！</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>酒店环境很不错，也很干净；晚上也很安静。不过就是没有空调，怕热的人可能接受不了。不过昆明也没什么很热的机会。早上起来还有自助早餐，很不错的。</t>
+          <t>老板人很好，周边位置也很方便，附近吃的喝的都有，服务很周到，睡得很舒服！从来没有想过可以在外头也有这么有家具feel的旅馆，下次去的话也会继续选择！</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>酒店还可以</t>
+          <t>良心推荐</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>这个地方有一个麻烦就是它刷卡付帐的话都是不能退的，付房费如果刷卡就不能退，还有就是它的房间不够大，经常出去玩的其实很简单，就是干净卫生，然后安全就好了，这个酒店这些都没问题，如果有问题我也不会住，卫生的标准最主要就是床铺要干净，然后就是房间的卫生，包括整个外围的大厅的走道呀，最主要的就是床铺要经常洗经常换。安全也还不错，第一个就是整个出入口都有人，然后就是包括摄像头呀，然后就是房间的门、安全锁等等。</t>
+          <t>家庭式的，很温馨，很干净，老板每天早上起来都自己打扫房间。以前也住过民宿，都没有这家文艺。晚上大家在客厅聊天耍，其乐融融的特别嗨森。老板还会推荐攻略什么的，很好的人，很贴心周到。还木有老板娘哟，该抓住机会的搞快来~</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>挺舒适</t>
+          <t>很温馨，冯哥很有爱，已经推荐朋友住了，我会再来的</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>虽然我睡不习惯陌生床，但是这家酒店给我的感觉还可以，挺舒适，温暖的，设施也还挺齐全，环境也挺安静，总体感觉真的不错。</t>
+          <t>第一次来云南，第一次住客栈，运气超好碰到云南味！很喜欢这边哦，温馨！位置也不错，到哪里都方便，冯哥人特好，像大哥哥一样还给我安排行程，告诉我该注意的事情！住的很开心，不过就像一个大家庭一样，稍微有点吵，其他都不错</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>床比较窄，比较拥挤，卫生一般</t>
+          <t>不仅仅是张床</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>他就属于一个老的三星级酒店，整体服务呢都还可以，但是它的房型比较小，床比较窄，属于0.9米宽的床，反正基本上不会大于大于1米，所以住的比较拥挤。墙上贴的全是壁纸，暗乳黄色的，酒店的卫生条件多多少少都有点缺点，隔音效果，住在临街的话隔音效果不好，如果住在阴面的话，感觉都还可以，设施挺齐全的。</t>
+          <t>蓝白扎染布，编麻拖鞋，每日的新鲜水果，凉水开水都备好，很周到；老板，导游，朋友，住在这里不仅仅是张床。谢谢凌晨四点半送我打车去机场。</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>尽量满足需求</t>
+          <t>很不错的家庭旅馆哦，适合各类驴友入住</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>昆明本来就不大，位置还不错，属于中心地带，交通比较方便，而且他们的价格比较合适。酒店里面比较一般，大厅装修方面挺简单的，设施方面不行，他们房间不能够上网，我们工作需要网络，室内都没有提供网络，然后只好到公司上网。不过前台旁边有两台电脑可以免费上网，主要是房间里面没有，感觉不太方便。服务人员的态度还不错，比较热情，有什么事情和他们说，然后都会尽量地满足需求。</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>快捷的酒店</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>酒店位置真的很好，在主干道上去哪里都方便，购物也方便_x000D_
-特别是房间，真的很宽敞，豪华房分会客厅和卧房，在这样房间里住宿，心情很好，没有压抑感。_x000D_
-在就是它的卫生间，宽敞又整洁，比一般商务酒店的小小卫生间真的强百倍_x000D_
-早晨还提供早餐，当然餐品种类不多_x000D_
-服务方面，有些员工不说普通话，交流起来还是有障碍的，这是一点不足</t>
+          <t>很不错的家庭旅馆哦，适合各类驴友入住。店主是一名资深驴友，全国各地及至全球各地都在不少地方留下了他的身影，并且是骑行爱好者和倡导者。有相同爱好，或者喜欢旅行的朋友住在这里，还是很不错的。</t>
         </is>
       </c>
     </row>
@@ -2264,120 +2308,120 @@
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
         <is>
-          <t>一定要冬天来</t>
+          <t>玉溪的地标酒店</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>冬天的西双版纳，真是太舒服了。下了飞机就可以换上短信，到处都是一片绿。虽然酒店很好，不过我还是很希望体验民居，住在傣家寨子了。很满意！</t>
+          <t>到了玉溪，一定避不开红塔，所以红塔区红塔大道上的中维红塔大酒店，绝对是地标必住酒店。酒店于2022年全面重新翻修过，管理是专业的中维在做，所以是标准规矩的高星级酒店。转角处的客房，卫生间特别大，采光通风都很好！</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>位置超好的酒店</t>
+          <t>设施陈旧的大酒店</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>在市区中心，环境优美，离曼听公园步行15分钟。门口大街上晚七点后有旅游夜市，方便购物，楼下有泰餐财春青，美美咖啡，湘军厨房等。酒店房间够大，卫生间也大，服务不错，门口停车方便。</t>
+          <t>在这个生产著名的红塔山香烟的城市来说，红塔大酒店显得有点破落，房间装修感觉至少十年以上了，电视机已是现在很少能见到的显像管的，毛巾浴巾都有些旧，好在房间打扫的还算整洁，只是入住的房间居然空调不制冷，无奈换到8008房间，又好在服务员和修理工态度很好，晚间上楼时有客人喝醉了在电梯里呕吐物，不过酒店工作人员反应还比较快，过了一会儿下楼时，发现污物已被收拾干净。相对于四星酒店，早餐就比较一般般了，最后退房时，朋友居然被锁在电梯里，最后酒店给了房价对折，看来酒店真的该升级维护了。</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>物超所值的一家酒店</t>
+          <t>服务比较好的酒店</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>酒店才装修不久，房间设施很不错，服务员的态度也很好，还帮我们削了菠萝呢，呵呵，放在冰箱里，每天还有水果赠送，出行也很方便，周边就有夜市和烧烤摊，去还有一家超市</t>
+          <t>这个酒店虽然是带星级的酒店，但是外面看起来有点陈旧，酒店位置便利很好找，打车很方便的。酒店服务也很不错，帮拿行李，比较不错。价格还算可以，酒店内部感觉还可以挺新的，房间里面也不错，唯一问题就是房间不隔音，对睡眠有影响。</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>感觉还好啦</t>
+          <t>酒店比较老，服务好，不隔音</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>服务方面很好，环境也很优雅。特别是餐饮部的一位迎宾员，她的服务态度很好，特别是她的微笑让我感觉很舒适、很亲切。我那次去的时候是2008年。可今年去入住的时候那位小姑娘已经早就辞职了。很遗憾没见到那位傣族小姑娘！</t>
+          <t>酒店比较老，服务很热情，刚下车就有行李员热情的拿行李。餐厅服务也很热情，就是收了100元自带酒水开瓶费，很不合理。房间不太隔音。</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>还行</t>
+          <t>地理位置比较方便</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>跟团住的 4星 地理位置还不错 特别是晚上酒店斜对面就有夜市 特色旅游品等 值得逛逛 酒店对面有几家海鲜酒楼 港式茶点不错 其他都有点贵 副楼有KTV  外包的 隔音很差 晚上有点吵 有游泳池但据说从来没开放过 遗憾 自助早餐还不错的</t>
+          <t>那边大酒店还是比较小，优势方面还是比较大，地理位置那边还是比较方便，停车方面还是比较方便，他们那边停车场特别大，就在红塔大道边上，那边周边出行交通还可以。比较深刻的地方房间里面有股烟味，走道上也有烟味，感觉走道很不干净。走廊里面感觉很旧，看他们那个地毯就看出来了，又脏又旧。房间里面的通风不是不够好，估计就是那个酒店住着红塔集团人太多，抽烟的太多。房间的设施还可以，跟普通的一样，房间里面会出现陈旧现象，有时候会看见脱落的墙皮。房间的隔音方面还行。价位来说太贵。</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>西双版纳</t>
+          <t>交通挺方便</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>西双版纳是个美丽的地方，傣族人民的聚集地，气候属于热带雨林气候，湿润，柔和，傣历新年泼水节很好玩，东西是傣味，很好吃</t>
+          <t>酒店还是比较老了，比如装修方面和新装修的酒店还是有一定的差距，进入酒店装修会给我感觉沉闷和压抑。房间内的采光度和通风效果还是可以的，房间内的空间大小和隔音效果也都是可以的。酒店的地理位置还算方便，算是在市中心，这个酒店是玉溪不太多的几家星级酒店，在酒店的附近有一个超市，也就有十到十五分钟的路程吧。在酒店的门口打车和坐公交也方便。酒店提供的早餐也不好，质量不是很好。</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>一般啊</t>
+          <t>同价位的优选</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>酒店环境、卫生条件都还好。但窗户的隔音效果太差，外面马路上的汽车声音很大。早餐太差，没什么东西，而且大多都凉了，去的晚，一些食品都没了。还有就是离夜市、商业购物区稍远。</t>
+          <t>出门走5分钟就是沃尔玛，对面是有名的聂耳公园，送的早点很精致，水果新鲜，面包品种多，粉丝就不用说啦，房间卫生一天打扫2次，很人性！大堂经常看到举行婚宴。。。有面子</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>舒适</t>
+          <t>特色菜都很不错</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>来到酒店，环境卫生相当令人满意，服务很好，舒适的感觉令人相当满意，交通便利，环境清雅背倚澜沧江，尽览东方多瑙河两岸风光及掩映在槟榔树、凤尾竹下的傣家村</t>
+          <t>入住条件还行，餐饮还可以吧，品种也挺多的，他们那边还有特色菜，早餐有米线，中餐有他们那边的烤鸭呀鸡之类的，可能也不算太贵，味道也还行。位置还好吧，对面刚好是个公园，环境都挺好的。我觉得酒店都大同小异的。那边网速还行，偷菜呀聊天呀都还可以的。</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>蛮安静的，服务效率高</t>
+          <t>大堂很宽敞，环境很好</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>它的位置比较好，是几条路交汇的地方，周围比较方便，比较热闹，在房间里面还蛮安静的，没有什么影响，而且我住的楼层比较好，住在上面的话可以把景洪市基本上都可以看清楚，我觉得里面客人并不多，比较安静；服务还行，服务人员办理订退手续时，效率还是比较高的，因为人不多，一去基本上不用等很快就办好了。</t>
+          <t>已经订好的房间却又让我们等了1个多小时，感觉很不好。整体环境很好，大堂很宽敞，房间内的卫生还好，也有无线网络用起来比较方便，就是设备设施比较陈旧，如果可以的话，做好更新一下。因为住过了很多酒店了，相比较的话这家酒店这样的价位从服务方面来说还应该做得更好些。</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>西双版纳比较好的酒店</t>
+          <t>性价比高哦</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>干净卫生.交通便利.在市区内.周围却是小区.比较安静..是旅游度假的休息的好去处.服务态度情切.让你有宾至如归的感觉.</t>
+          <t>这个就是感觉它挂牌挂的好像是四个星，但是感觉设施有点旧，它的卫生还是做的不错的。早餐还不错，挺丰富的。关键是它的价格比较便宜，就是它的价格和环境设施服务相比性价比比较高。从位置上来讲还是不错的，前面就是一个广场，交通很方便，周边的环境很清静，比较好，隔音效果也是不错的。周围的高层建筑比较少，所以说视野还是比较好的，我感觉好像是二十多层吧。</t>
         </is>
       </c>
     </row>
@@ -2418,131 +2462,126 @@
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
         <is>
-          <t>滇池边上的四星级酒店</t>
+          <t>闹中取静的世博花园酒店</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>滇池大酒店位于滇池边上的酒店度假区内，旁边就是昆明的洲际酒店。这家酒店是民航系统在昆明的会议和疗养酒店。今年和去年我都在该酒店参加过会议活动，大概在里面住了半个月。总得来说酒店虽然不大，但是环境不错，冬天下雪时，庭园的景色很美。酒店内有两栋主要的住宿楼，东楼相对来说住宿条件和房间设施更好，西楼（也就是有大会议室的那栋楼）的条件差一些。酒店内靠里面有一座标准泳池的游泳馆，人很少，可以在里面畅游（昆明海拔1000多米，是游泳锻炼的好地方）。酒店的餐食较一般。在没有会议活动的时候很少提供自助餐选择。这几乎就是一家为举办会议而设的酒店，游客不多，应该不太适合私人前往住宿（私人前往的话，因为没有酒店协议价，所以性价比不高）。_x000D_
-酒店最大的好处是靠近滇池，时不时地去滇池散步看海还是很惬意的。</t>
+          <t>地址：位于昆明市东北部的世博生态城中心区，属于盘龙区的世博路5号_x000D_
+交通：离机场距离10公里，离昆明火车站距离8公里，离市中心距离4公里，离世博花园距离1公里，尤其到机场来去的话在酒店旁边就有机场快线25元半小时不到就可抵达。_x000D_
+周边景点：世博园，金殿，以及野生动物园，徒步和公交都很近的。_x000D_
+服务：在世博上找到酒店，发现外观并不是很豪华，但进入后服务生很热情地帮你提行李并耐心等待你办理好入住手续后帮你送到房间里，在餐厅用餐时服务员也是很及时的清理你面前的脏盆，问及一些咨询事时都是笑容可掬。_x000D_
+客房：预定的是一号院的标准房，进入客房部后踏着长长的民族风的地毯进房间第一眼就是大床，白色和花色的床品让人眼前一亮，这样的色调是我喜欢的，床单等还算干净。第二亮点是阳台，不算很大的阳台上被放置了一套藤桌椅，适合在这里泡茶聊天，惬意的安排。不过对面的多功能厅如果有活动在进行的话，也是很嘈杂的。房间里的最三大亮点要数那相连房间的卫生间木格子窗户了，卧室和卫生间的相通点就是这窗户了，既可以很隐蔽也可以开放，呵呵，这个设计有点大胆。房间的WIFI是自动连接开放的，但一号院的信号不是很好。洗漱用品算一般吧，没多大特色，卫生间有点小，淋浴和浴缸是一起用的，浴缸显得有点陈旧了。浴袍浴巾还算看着新，不过颜色也有点泛黄了，可能是酒店使用的时间久了的缘故吧。墙上的画倒是很有艺术气息。房间里提供了两瓶免费用水，其他的要付费的东西都标明了价格，让客人可以一目了然的看见并决定是否使用，这个也透明化。在衣柜里有冰柜浴袍，不知为何还有两条蓝色的浴巾，卫生间里本来还有两条白色浴巾的。整体还算可以吧。_x000D_
+酒店设施：进入大厅是一束大大的白色如紫荆花的布置，清新典雅，旁边还有一个大大的旋转楼梯，这里经常会有婚宴举办。一楼的香草园是连接着一号院的客房部的，下来可直接进入餐厅，主要是自助餐为主，这几天正好在美食节，晚上每位168元还可以打8.8折。大厅的旁边大堂吧，有朋友来可以一起喝茶聊天的，二楼有各类型会议室和带同声传译的多功能会议厅等，这个对客房部有点影响的，尤其是二楼的那个多功能大厅，有会议举办的时候那个声响穿透力还是很强大的，如果房间窗户不关紧的话，很影响睡眠的。三楼有棋牌室、茶艺馆、健身房等，没找到室内游泳池，不过看见健身房就开心了。_x000D_
+整体印象：酒店设施有点陈旧了，但交通比较便捷，到机场有快线，到世博园和金殿野生动物园等地很近。个人觉得适合带着孩子们来看看这一带的世博园情况入住还是不错的选择。</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>离滇池走路5分钟，老酒店，适合度假</t>
+          <t>送世博的票</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>这是家老酒店，为滇池度假区内，走路到滇池观景大道5分钟即可。酒店房间很干净，服务也很不错。早餐是那种接待旅行社风格的。总体来说不错。</t>
+          <t>位于世博园西门，入住这里是送门票的哦。而且推开窗就能看到园区，景色非常好。房间很新，室内花香味比较浓不自然，大堂的花香味比较好闻，而且入住还送了类似猫哆啦那种糖蛮不错的。</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>太一般的酒店</t>
+          <t>俺很喜欢</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>号称四星，最多三星水平。在这家酒店住过两次，一次B座一次A座，A座房间条件好于B座。早餐送的餐券在中餐厅。这是我吃过的最寒酸的酒店早餐，味道差种类少，没有咖啡没有牛奶，没有咖啡没有牛奶甚至没有蔬菜。另外，这家酒店的WI-FI极慢，速度甚至比不上我的2G手机。不过酒店西餐厅的自助晚餐还可以，种类算丰富。离滇池码头也很近，冬天想看红嘴鸥的话，走路十分钟就到滇池边。但是如果你想住得舒服，那这里不是个好选择。</t>
+          <t>酒店像在花园里面一样，环境特别的好，而且后面就是世博园，入住酒店就不用买门票就可以去游园了，酒店的房间挺不错的，里面的设计以及设施都挺好的，可以说来住这家酒店真的挺值的，还给提供早餐，有特色的小吃，还有过桥米线，很正宗的</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>全面</t>
+          <t>性价比不错</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>酒店的环境非常的好，小桥流水很惬意，还有凉亭，酒店是别墅式的，装修的很时尚，服务态度很热情，工作人员主动帮我拿行李，真的非常的感谢，房间的卫生挺干净的，酒店的休闲设施挺全的，健身房，游泳池，酒吧，等等都有。</t>
+          <t>酒店应该是因旁边的世博园而取名，入住酒店会送世博园门票，性价性高。酒店是园林式的酒店，房间干净舒适，在阳台上可以一边喝茶一边看外面的园林风景。周边很多吃喝的地方，酒店的早餐出口很不错，有一定的水准。</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>滇池旁的休闲酒店，位置一流</t>
+          <t>紧挨世博园，还送门票哦</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>位置是最大的优点，昆明长水机场新开了一条机场大巴线到滇池。这条线的起点和终点就在滇池大酒店。昆明本身就是一个重要的航线中转站。以后来昆明转机可以选择到滇池转转，骑个自行车，沿湖边散散心。需要注意的是好像每天回机场的车到下午四点半就没了。当天转机的同学请一定和机场核对好时间。</t>
+          <t>酒店就在世博园的边上，出门散步就到了，而且还赠送门票，尽管世博园已经不像以前那么红火了，但能省门票还是不错的，这点酒店很人性化。酒店服务挺好的，维护得也不错，挺新，设施什么的都很齐全。房间比较大，大床房很舒服，还能看见世博园，空气相当好。</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>环境优美的酒店</t>
+          <t>高性价比的五星级酒店客房</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>一次去昆明，滇池是必看的，因此选择住在这里，离草海很近，风景很好，房间的装修比较明朗，_x000D_
-_x000D_
-院子里的环境优美，还种着菩提树，善哉善哉！_x000D_
-_x000D_
-只是地处正在施工的管理干部学院中间，噪音偏大。吃饭一般，大概30元的自助餐基本没什么菜。但是总体评价还不错，</t>
+          <t>入住昆明世博花园酒店，进入酒店宽敞的五星级客房就有给人眼前一亮的感觉，而每晚480元的团队价格更是诱人。午后坐在客房宽敞的阳台的藤椅上，泡上一壶普洱茶，微风佛面，眼前一片苍翠的林木，而又是那么的安静。</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>住的最好的酒店</t>
+          <t>在世博园的附近</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>当时是参加旅行团订的，我觉得是在云南住的最好的，不管是条件呀，卫生呀，早餐呀都很不错的，我们住的是全程挂四星的，这是在我们住的酒店最好的，它吃的也非常好，出去玩也特别方便，环境都是高级住宅区，旁边都是林引小道，它里面弄的跟花园似的．</t>
+          <t>我们去世博转了一下，它离世博很近，我们就过去住了，我觉得它的房价还差不多，400多一个标准双人间，跟其他酒店也差不多，它有点像度假酒店，楼层也不高。我当时是坐出租车过去的，感觉挺方便的，要是在酒店打车的话，服务人员都有给打车，感觉还行。它的餐饮也还行，像有那个湖南的米线，其他的都是一般大众口味的。它这跟其他酒店比就是空气要好一点，但整体感觉旧了一点，服务态度还差不多，感觉蛮好的，但是酒店内部那个小卖部的烟是假的，一看就是假的。在这里只要住宿就会送世博园的门票的。</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>周围的环境比较好</t>
+          <t>环境优美，早餐很好</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>周围的环境比较好，就是像别墅式的，绿化的也很好。服务人员也不错，都会主动打招呼之类的。酒店附近有个民族村，就有很多活动嘛，包括房屋啊都很有民族特色的。房间里的装修就没有达到那么好了，可能这边比较具有民族特色吧，像灯桌椅啊都是木制的，但价位还蛮高的。</t>
+          <t>除了距离市中心稍微远一点其他的没有问题的，但是酒店距离世博园是比较近的。门口的公交打车都是很方便的，距离火车站这些地方就是正常吧。房间的话各个方面的设施，配置都是比较齐全的，床、卫生间做的都是很不错的，摆设的话都是齐全的，总体感觉是不错的，休闲住的话是很好的，因为不在市区，很安静，旁边是公园，环境很好。酒店软件的话服务是不错的。亮点的话就是酒店的早餐是不错的，品种和质量都是很好的。</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>美不胜收</t>
+          <t>后面就是世博园不用买票</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>今年春节去的,那边气候宜人,四季如春,住在滇池边,早上起床后在池边散步,带上早餐吃剩的点心喂海鸥,很好玩,景色很美</t>
+          <t>周围很多自助餐，十多块钱就可以的，都很便宜。酒店比较安静的嘛，位置偏了一点，朋友有车把我安排到那边，也就无所谓了，朋友有金卡，价格还是比较便宜的。房子后面就是世博园，从后面走进去都不用买票。如果领导过来的话酒店档次还是可以的，接待没什么问题的，是个五星级的价格也会比较便宜。这边都有早餐的，一般我都不会吃的，他们有中餐有自助餐，像过桥米线呀昆明的很多特色小吃，但是我都没有去吃。他们住店就是住店了，配套稍微差了点，没有三亚那边能去沙滩上散步呀或者游泳呀那么浪漫的事情，最好拿出几亩地来挖个泳池了。</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>总体来说比较好</t>
+          <t>主要是环境相对好一点</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>虽然离昆明市区比较远_x000D_
-但位于滇池景区_x000D_
-比较安静清幽_x000D_
-房间也很大气干净_x000D_
-因为是跟团_x000D_
-不知道具体价格_x000D_
-但大体来说是OK的</t>
+          <t>主要是环境相对好一点，外部，内部都有，反正这里给我印象比较好，我过来还会来住的。房间装修比较有特点，反正这个阳台是花园式的，站在阳台上山水呀这些都可以看到，相对舒服一点。不过这个位置交通不太方便，这地方比较偏僻，打个车子都打不到，自己开车还差不多，车位也可以。</t>
         </is>
       </c>
     </row>
@@ -2552,629 +2591,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col width="300" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>评论标题</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>评论主体</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>天空是那么的蓝、那么的纯净</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>今年年假去了趟云南，从丽江出发往香格里拉，当踏上这一片净土，站在仅有蓝天与大草原之间，感受心情向大自然中奔放，那一切的美好的感受一直留恋到今。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>美丽的云南丽江!</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>丽江,城市很美,生活很惬意舒适, 环境很好!都不想回来了! 那里有热情好客的白族姑娘,有班驳的石子路,有玉龙雪山,有小资情调的酒吧,夜晚红色的灯笼高高挂着,映衬在小溪水上,别有一番情趣! 这里是一处远离烦嚣的人间仙境!</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>云南之旅</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>云南，首先要去石林，2亿多年前的海底世界；再去西双版纳，野象谷一定不能错过，运气好的还能看见野象，晚上还有篝火晚会恭候着大家；其次去大理，看看崇圣寺三塔，走走天龙八部影视城，逛逛蝴蝶泉，然后坐着大游轮去了解一下古代的南诏国；最后一站丽江，远望玉龙雪山，来到丽江古镇，晚上坐在一米阳光的角落听着音乐，或跟着舞池的人一起摇摆，结识一帮酒友，喝个不醉不归。听人家说香格里拉是个不错的地方，那可是人间仙境，神仙居住的地方，可是我们是凡人，那样的地方我们居住不了，也就没去了。这次旅行愉快的Over了！</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>映像云南</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>有些时候，我们往往生活在都市里看不到真正的生态平衡。去过云南昆明，在那里家家都有花，处处都有绿。让你放松的走在街道上，偶尔会看到几个少数民族的女孩在挑着扁担做生意。那里的人生活的很悠闲，阳光很暧，不用早起，因为八点天还没有亮，好多水果是我们北方人少见的。还想去一次。</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>我们</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>昆明是个美丽的城市，那里的环境让我觉得很舒适，很朴实，我想因为平凡，所以简单， 因为简单，所以幸福，不同的文化，不同的风格，不同的情愫…</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>天之涯，云之南，我心之往</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>上次去云南是去年的时候是去年秋天，以前对云南美景的耳濡目染是我对此次出游充满憧憬和期待，我们去了丽江 昆明 泸沽湖等景区，深深的感受到了云南特有的纯净和与众不同，如果还有机会我还是愿意重返云南，那个我阅之千遍也不厌的地方</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>云南</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>很美丽的一个地方。去的时候刚好下过一场小雨，空气特别清新。一切 都那么纯净那么舒适，疲惫的心因此得到释放。那一张张和善的笑脸如今还深深的映在我心里</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>~~再次回味~~</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>去年公司集体旅游风声一出来~我们所有的人一致认定云南~可惜时间仓促没能让我好好体验下洱海的温柔~古城的幽静~雪山的壮观~石林的艺术~好像再一次回去慢慢体验哇~</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>美~</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>热爱春城昆明的花开不败，沉醉于浪漫丽江的柔软时光，_x000D_
-坐享泸沽湖梦境般的湖光山色，观赏大理苍山洱海的壮阔美景。_x000D_
-一句话美不胜收。</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>值得一去</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2005年的夏天，我先到了腾冲热海，和顺；然后去了大理，大理也不是不错的地方；之后去了丽江，丽江古城给我留下了很好的影印，但印象最深的还是黑龙潭，喜欢这里，真的值得你一去。</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col width="300" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>评论标题</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>评论主体</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>非常值得一看</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>云南这座城市很神秘，他的神秘之处在于她的少数民族们。上帝似乎赐予了她们多种魔力。云南民族博物馆里我最喜欢的就是，它完美的展示了少数民族自创的文字，和各类崖画。有很多看不懂的地方尤其神秘，更加增加了它的美，非常值得一看。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>大开眼界，民族的俗物</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>这次来云南选择了这里，算是没白来，一路上导游就把这次的旅程简介的说了一遍，第一站就来了这里，真是让我有点大开眼界了，里面的美术，乐器、古书最好看的是那些服装，还有饰品真是太好看了，如能买的话真想买件回来穿穿，民族的风味十足，不枉此行啊。</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>少数民族风情</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>博物馆就在滇池的边上，去滇池玩时候可以顺便来参观，博物馆里的展览品很丰富，而且都是云南这里少数民族特色的，非常具有民族风情，可以了解少数民族的风土人情与历史。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>非常值得逛</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>如果想了解瑰丽的民族文化这里绝对是个好地方，不逊色于北京民族文化宫，云南有全国最多的少数民族，而且很多很原生态的东西都能在这里看到，包括服饰、器具，很有意思</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>灰常好</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>特色    灰常特色   简直就是人间天堂般的感觉  里面聚集了云南各个少数民族的精华   以及  文明  让人过目难忘  记忆深刻】_x000D_
-大家一起体验吧</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>不错的选择</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>风景迷人，采风必去！少数民族风情，值得细细品味！代表了整个云南各个地区的民族风情，真的很精彩！一起去吧，带着自己心爱的人！还有独具风味的地方小吃哦。</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>游感</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>说实话我是标题无能，  将就下。_x000D_
-去云南少数民族博物馆 ，是我云南之行的最后一站 ，说实话没什么特色 ，如果你是文物爱好者就另当别论了 ，但这估计是你报每个团都会去的地方 ，算是一种当地旅游的政策吧</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>特色</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>里面的东西太片面，不够新颖，需增加一些民族气息更浓的色彩。 精彩的表演太少了，而且应该再固定的地方设有专业的讲解人员，。</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>我最爱</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>体现了我过各个少数民族不同民族的传统文化和礼仪文化，让我深深的体会到少数民族文化的精深和广博！！！希望有机会再去那里。</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>云南少数民族博物馆</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>云南少数民族博物馆是一个很有民族特色的地方，票价也合理，特别喜欢那里的“东方珍宝奇石”，品种多样，很有东方文化风采。</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col width="300" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>评论标题</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>评论主体</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>周围很不错</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>酒店的周围还算是比较热闹吧，不缺吃的和玩的地方，尤其的此地的名吃很丰富还可以买到特色礼品。酒店内的环境很优越，里面有好几个餐厅，风味各不相同，房间大住起来舒适，上网比较便利</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>卫生没得挑</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>店面稍有些偏僻，距离市里不是很远，打车十五块钱左右就差不多了，酒店给人感觉比较优雅，也很有档次，服务是非常的热情，还会给送水果，在外地住酒店有这样的服务真的感觉很满意，房间内也是干净卫生，无可挑剔。</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>这家酒店很给力</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>每次去昆明，都住雅都酒店，首先是因为他离机场很近，10分钟，省会城市，10分钟能到市区酒店的，可能再没有了（到火车站好像也是起步价）。其次呢，服务特别周到，因为我经常住，酒店很多人都认识我，经常节假日免费送花给我，还有水果。虽然不值多少钱，但真有一种宾至如归的感觉。还有，房价的装修风格我很喜欢，不张扬，但是很贴心，很喜欢。另外，他的顶楼去年刚装修，富丽堂皇形容他应该很贴切。总之，很喜欢</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>各方面都很好</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>相对来说干净一些，酒店比较新，装修比较干净，交通比较方便，买东西、购物不方便，打车很方便，离市中心有点远，大约半小时能到，离机场近，十分钟就能到。服务还是挺可以的，帮忙开车门、提行李。餐厅是对外承包的，餐饮只有海鲜。房子非常紧张，需要提前预定。</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>位置靠近马路，交通很方便</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>客户给定的，住的是标间，房价280。周边环境不是很好，房间比较小，服务员态度也还可以。硬件设施比较齐全，卫生也很干净。位置靠近马路，交通很方便，很容易打到车，离公交站也不远门口就有，离机场也就三公里吧。对面有一个沃尔玛超市购物很方便。早餐一般，样式很少味道也不是很好。隔音效果还行吧，就是挨着马路的地方有点吵。酒店后边比较吵</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>交通方便</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>雅都酒店就在昆明国际会展中心旁边，离机场3公里左右，离火车站不到3公里，离市中心也就五六公里，真是交通方便。酒店按四星设计，不到三百的房价含早餐，房间干净亮堂，就是小了一点点，感觉还是蛮实惠的。</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>干净、安静、出行方便，服务一般</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>感觉挺不错的，比较干净，也很安静，出行比较方便。因为酒店距离机场近，车程差不多五分钟，去火车站的话，车程也差不多十分钟，然后离商业区也十分钟左右，去哪都方便。然后房间挺大的，装修一般，挺老的，一看就是老式的酒店，不过里面的设施还不错，而且环境挺好的。服务一般，再热情一点就好了。</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>到关上办事方便</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>到关上办事方便，旁边有饮食一条街，到机场很近，10分钟车程，早餐一般，房型好比较大，上网免费，就是经济商务型，如果不进城办事的话，还是不错的</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>卫生、早餐有地方特色、方便</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>在他们当地这家酒店是挺不错的，装修标准是四星级的，各方面都挺好的。酒店房间空间还可以，屋子里面的墙壁是以米黄色为主，房间里面的设施如果是按他们那边的发展情况的话算是不错的了。房间的卫生打扫的蛮好的，酒店有提供早餐，多是地方特色的，味道也还可以。地理位置挺不错的，在市中心，各方面都挺方便的。</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>设施陈旧，位置不便，服务不好</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>设施比较差，看着比较陈旧，尤其周边环境不好，比较嘈杂，在加上房间的隔音不好打扰我的休息，而且经常在酒店的餐厅吃也比较单调，想要出去到外面吃饭购物也很不方便。内部的装修有点老套，配套不齐全的，而且感觉服务人员态度不好，结帐的时候很差，里面的空间比较小，唯一不错的就是酒店离机场比较近，比较方便，虽然简单也能体现商务性质的酒店。</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col width="300" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>评论标题</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>评论主体</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>偶尔说话</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>饭店真心是比较不错，从装修到服务都很好，装修还是比较新的，房间里面给人很温馨的感觉。交通也还行，出门就有公交车站，还算方便，房间里面还可以，设施都还好，灯具没有坏的，电视虽然是老式的那种，不过，还比较好使，收到的频道还算多吧。基本上是比较满意的，如果隔音效果再好一点就更好了，偶尔会听到隔壁的说话声。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>可能是昆明最好的酒店之一了吧</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>很不错，卫生还行，地段也不错，出行很方便。房间还可以，_x000D_
-_x000D_
-可能是昆明最好的酒店之一了吧，只是服务员的普通话不是太好，呵呵，希望下次交流更方便</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>只能说还好</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>因为机票改签，导致高峰期没地方住，只能被出租车拉来住这里，觉得只是一般……_x000D_
-墙上有恐怖的污渍，热水也有问题。让人心里无限郁闷啊！</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>总体感觉挺好的</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>房间布置很温馨，宽敞，舒适，许多人一起玩也不显拥挤，设施齐备，价格算合理吧。附近有很多景点环境很好，去花鸟市场和翠湖路都很近，门口有26，84路车可以到许多地方，的士也多。在酒店吃，附近有米线，烧烤等各种云南特色小吃，还可以吃到泰国菜，去翠湖很好玩。配套设施很齐备，服务态度还可以，认真。</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>感觉很好的酒店</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>价格较合理，位置也在市中心附近，价格不贵。周围有很多公交车通过，105路可以直接到市中心，的士也很多。在酒店附近的当地风味餐馆用餐，在酒店前就有好多过桥米线店。设施较齐全，该有的都有。服务态度很和蔼，热情，服务也不错，房间应该多通风。</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>位置较好，卫生也好，</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>位置较好，卫生也好，早餐不错，我们大旅行团被安排得很好，房间集中便于管理联系，环境较清静适合旅途疲劳后的休息整顿</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>位置很好，房间舒适</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>要是不打电话订都住满了，因为它这块儿有一个云南省著名的迪厅，昆明玩的地方就在这了，逛街特别适合，吃的地方也很多，周末很多人玩的晚了都过来住了，而且它装修的比较好，新装修的，而且除了周末平常还打折，楼层很高，20来层，视野也挺开阔。卫生也绝对干净，因为它那个色调感觉很好，浅色调的，显得很干净。而且很划算。</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>房间宽敞舒适，周边环境不错</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>房间很宽敞、舒适，晚上比较安静，临近市中心，隔音较好，价格也合理，环境很好，有小公园在附近，可以到花鸟市场、博物馆、翠湖参观游玩，到各个景区都很方便，的士挥手就来，附近烤洋芋很好吃，服务员的服务态度很好，有问必答，建议酒店的房间里应多加点云南特色的饰品。</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>环境很不错</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>环境很好，不堵车的话到景区也比较近，我们都乘坐旅行公司的大巴出行。可以去民族村，世博园黑龙潭，西山，海埂公园等等都挺好玩的，酒店有各种休闲娱乐场所，隔音也不错，很安静，服务员态度很好，用普通话与我交谈。</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>格局合理，环境优美</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>电视电话影碟机俱全，作用方面，房间整体格局很合理，价位适中。周围环境优美，有许多参天大树，空气很清新，公交方面，的士招手即停，去各处景区都方便。在酒店吃的很多，云南的美食很多，附近有正宗的木锅米线，距南屏小西门也都很近，房间的设施齐备，感觉还不错，多有些云南特色的东西更好。服务态度不错。价格适中，能降点最好。</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3208,135 +2624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col width="300" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>评论标题</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>评论主体</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>口味还是很不错</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>菜品口味还是很不错的，有点儿偏辣，不过还是非常正宗的。店铺环境很有特色，古色古香的，菜的价格真的好便宜啊，服务也很不错</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>装修很有民族特色</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>装修很有民族特色，也有民俗表演，价格也比较实惠，缺点在菜品上面，味道有点平淡，不算太好，上菜也有点慢，要等不少时间。</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>美食与文化的双体验</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>这是一家非常有特点的餐馆，美食体验云南风味的同时，可以观看云南民族特色的演出，咚咚的鼓声，激情活泼的傣舞，抢亲等一应俱全。此外，餐馆内还有一个小型博物馆，很多珍奇的展品，不虚此行!推荐</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>云南风味比较有特色</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>既然是主打老滇味云南风味，所以进就店要了两份云南泡饭，不是平时那种泡饭，云南泡饭不一样，有点像平时我们吃的盖浇饭那种，有番茄炒蛋，还有鸡肉等等，另外还要了一份羊肉米线，说是他们店的特色菜，羊肉好多噢，里面放的不是一般的香菜，而是云南特有的薄荷叶，这个还是第一次吃到</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col width="300" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>评论标题</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>评论主体</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>OLD SCHOOL风格便捷酒店</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>酒店位置在地铁东风广场站步行5分钟以内的路程，离南坪步行街和昆明老街都非常近，地理位置优越。酒店非常干净，风格OLDSCHOOL有格调，而且整洁干净，比起同价位的便捷型酒店有一定的优越性。由于他是一家咖啡酒店，还会提供咖啡服务，让疲惫的旅途有一个休憩的空间。早餐种类较多，但是品类还有提高的空间，早餐房外有一个很小的儿童游乐空间，对于小儿童有较大的吸引力。在房间允许的情况下，会主动给有需要的客户免费升房，入住体验良好。</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3370,13 +2658,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3399,126 +2687,18 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>水果沙拉</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>这店是朋友推荐的，出了机场打车大概10几分钟就到了，感觉还可以，装修的比较新，设施也挺齐全的，房间里面有网线可以上网，网速还是比较给力的，还有40多寸的液晶大电视，看起来效果非常好，很舒心，还是提供了免费的早餐，早餐的样式比较多，中西都有，最喜欢的是云南的过桥米线，还有他们做的水果沙拉，非常不错，建议大家可以去尝一下。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>性价比比较高</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>性价比比较高。交通比较方便，离机场比较近。比较干净，而且房间也比较宽敞，家电比较齐全，比较新，电视是四十多吋的液晶，因为是重新装修过的，有网线。停车车位不是太多，但保安还是比较负责。因为是电力系统的，所以没有什么乱七八糟的服务什么的，住下来比较安静，没有什么打扰。酒店可能相当于一般城市的四星级标准吧，但价格是三星级的。周边吃的东西比较多，也方便，晚上很晚了门口还有烧烤。房间隔音还是不错，不过还是能听到路上车辆的声音。服务态度还是一般吧。</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>各方面都蛮好的</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>我觉得挺好的，房间布置的很精细，没有过多的摆设，看上去不累赘，感觉很舒服，各方面都蛮好的，在我住过所有酒店里面，这个算是蛮好的了。酒店有提供专门的会议室。它周边的环境还不错，它这边离机场特别近，在这个地方打的也只要十几块钱。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>隔音效果还可以</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>去的时候刚装修完，各方面的条件稍微差一点，味道也比较大，房间比较大，价格还可以，位置还可以，去哪都方便，也是市中心，门口就可以打车，隔音效果还可以，停车一般，停车场好像在里边，得拐进去，车位不是太多，就停在门口。</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>市中心交通便利，去机场火车站很方便。</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>是昆明供电局建的酒店，刚装修过，房间像四星，价格不贵，服务也不错，酒店往北前行500米就有两家昆明的大型商场，旁边还有一个寺庙（真庆观），交通方便。</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>对服务、位置、交通都很满意</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>刚刚装修过，但是房间里面没有新装修的那种味道。这个酒店的地理位置很好，交通很方便，而且它距离我办事的地方很方便。他们的服务方面做的比较好，经常有人过来清理卫生，我们要是拿着什么行李的话他们都会帮忙，在服务方面做的很让我满意。不过酒店的标示不明确，楼是连在一起的，A座B座等，分的不清楚，感觉不好找。</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>崭新的装修</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>刚刚装修过的酒店，看上去一切比较新。风格上是比较简洁大方的那种，服务就感觉很平常了，工作态度效率都一般不怎么特殊。房间的空间挺大的，里面的设施布局也还行，卫生间的卫生打扫的很到位，可以体现着整体卫生都很干净。餐饮吃着也一般，但酒店的位置还不错，出行还比较便利，</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>房间比较大</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>房间比较大，不过洗衣服的话，衣服去晾晒就没有地方挂，夏天嘛洗一些T恤了，小衣服之类的，房间啊或则洗手间都没有一个地方挂，感觉就这个不太方便。地理位置还行，挺方便的，在昆明的北京路，去的时候估计是新开的吧，价格还可以，装修的都比较的新。</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>早点方面比较好</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>主要是早点方面比较好，品种比较多，它的早餐明显比其它的酒店多的多，除了云南的米线啊，面条啊，还有西餐，面包片什么的，还有水果沙拉什么的，品种很多，它的房间也要宽敞一点，设施也好一点，属于市中心，隔音方面如果开窗的话就不行了，关上应该没什么问题。</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3541,67 +2721,18 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>餐饮做的比较好</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>菜做的比较不错，比较好吃，给我留下很深的印象。空间大小还可以，比较干净，就是方便比较简单。整体房间装修是属于简单明了型的。早餐的比较好吃，位置还可以，还是比较优越的，交通比较便利。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>高原上的酒店</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>它是一个高原酒店，周边都是雪山，环境恶劣海拔三四千米的地方，如果跟一般的地方的酒店比起来，设施没有那么好，那个地方本来就没几个酒店，在那么高的地方有这么个地方住已经不错了；房间舒适度还是不错的，就是水不是很热，我喜欢洗烫一点的，洗澡有一点点冷，不是想要多高，就能多高；酒店很普通，谈不上多豪华，早餐也还行。</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>基本可以</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>服务态度不怎么好，可以跟当地的民风有关,在那里呆了三天，没有像沿海地区那咱随叫随到的，有用品不好，还可以换什么的。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>市中心没什么好酒店</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>这里前两年改成了“香格里拉”,还把很高,空气清新,非常漂亮。很多中国人都来这里旅游,不过没有什么号的酒店。这家酒店算是比较好的了(离藏传佛教寺院很近的一家度假酒店据说不错)。
-房间面积不大,不过没什么问题,浴室不好。我只住了两天,就忍了,可要是多住几天就比较难受了。早餐的中餐也不好吃。</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3624,114 +2755,18 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>服务差</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>地点没有10分方便，而且每个工作人员都10问9唔应！用agoda订时写明要两床房，去到话没有，只比大床房，如要两床就要每晚另加$200，态度十分之差！！！</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>较为舒适</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>算是家比较大的酒店啦。机场到这花拉一个半小时。九楼开始是酒店的餐厅。自助很一般，龙虾或者牛排限选一份，其他餐没什么特色，马卡龙很甜很甜。房间比较干净，窗户密封性稍差，窗外是没开工的工地，晚上有些吵。枕头有些高，还算舒服。下面是金鹰广场，吃饭购物很方便。</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>闹中取静的上佳选择</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>选择金鹰，是考虑到周围餐饮娱乐都很方便，酒店本身档次也很高。入住后发现选择还是很正确的：房间很大很舒适，隔音效果也不错，特别是跟旁边的金鹰购物中心几乎零距离让动静结合得更有序更惬意。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>到机场也就四、五分钟</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>装修有点旧了，好多年了，有点老了。卫生也还可以，服务态度还差不多，也没有什么太多的帮助。地理位置也还可以，到机场也就四、五分钟，位置都差不多。隔音效果还好吧，不会听到隔壁的声音。应该有五、六年了，格局还可以，卫生间有点旧但是很干净。</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>房间的设施过时了，太老了</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>价位贵了，房间的设施过时了，太老了，灯都不亮了，是老酒店了，饮食也很差，房间的床头灯不亮，还让我们赔钱，说是我们整坏的，最后换掉了，没赔。洗澡的喷头不好用，冷热水不好调，卫生还可以，感觉以前是招待所，感觉一百块钱差不多了，在关渡广场旁边，离市中心比较远，算是郊区，乘公交比较方便，步行两三分钟到公交站点。服务不满意，送扑克牌都不给送过来，不提供这种服务。</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>服务是一流的</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>服务是一流的，第一天住进去之后，第二天服务人员就能够将客户的姓都记住，见面会主动同客户打招呼，这点很吸引人，而且它的房间里面会放一个花篮，每天都更换，无论是单人间还是双人间，每天都给客户提供两包香烟，我觉得很有创意。稍微不足的是床有点硬，不能够更换，卫生一般般，卫生间给人脏兮兮的感觉，毛巾看起来有点脏。</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>环境很安静，温暖</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>那环境还好，奥运去云南旅行，住那家了。跟团住的。导游还每人送支玫瑰。环境很安静，温暖。周围也有卖新鲜水果的，大家可以选择去住看看啊。价格因为是大家一起去的，组团，好像还不是很贵吧。自己去住肯定很贵。不建议去住。</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>房间很好，设置的也很漂亮</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>该酒店的性价比相当高，可能从旅行社定要便宜点，地理位置和交通很便利、周边环境和设施也可以，我去旅游都坐车，也没感觉不方便，酒店服务和硬件设置很好，房间很好，设置的也很漂亮。</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3757,941 +2792,85 @@
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
         <is>
-          <t>云南好美</t>
+          <t>还可以</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>我到了电视剧《去有风的地方》的取景地
-顺着剧情我到了大理的古镇，向阳的溪村，喜洲古镇，著名的洱海，沙溪古镇，凤阳邑。
-后面还在等追剧应该还有很多大理有名的地方。
-有一个片段让我印象深刻，是一个非常美的景色，是雪中的苍山，这座城市景色最吸引人的时候就是冬季。不会特别热感觉很清爽，能看到多种风貌的地质。主要是一个人静下心来享受很浪漫。我是一个喜欢住在海边的人，可是这里古老城池和村镇太有特色了，而且价格亲民，有一种古朴，小桥流水，宁静的大家宅院，少数民族风情的感觉，和电视剧《去有风的地方》里的女主住的地方几乎一模一样。这里还有很多步行街，也有商场超市，买东西很容易。
-众所周知 这里的热门景区古城，洱海，苍山。不过还有一些景区不论特色还是景色都不输上面几个。那就是
-1沙溪古镇：宁静的古镇，青山绿水环绕，环境优美，空气新鲜，少有人类干扰。
-2嵩圣寺：这里很像古代的皇室居住地，红墙青瓦，非常大。
-3喜洲古镇：这里非常漂亮，古老的街道，还有好多美女，金色的田地一望无际。简直就是诗词中的美景。
-在有些地方还能有机会乘坐三轮车非常有时代感。</t>
+          <t>人民路应该是大理很繁华的一条街，商铺餐厅林立。这家餐厅卖的品项很多，我点了一个炒饭，炒饭的地镬气还不错。</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>云南丽江</t>
+          <t>人气不足</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>丽江是一个美丽的地方。我想在有时间的时候可以去哪里看看 散散心。和自己的另一半在哪里度过美好的几天。我想它那里会给我们留下一些美好的回忆。</t>
+          <t>里面有驻店的歌手，听听歌曲，喝喝鸡尾酒，聊聊心事，很有感觉的。不过这家店感觉晚上人气不足，歌手很早就走了，老板调酒也比较慢，可能和这里的慢节奏有关吧。</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>雪山下郊游</t>
+          <t>-个人坐坐一个小时还是可以的</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>云南玉龙雪山下有一些客栈，早晨起床仿佛身置世外桃源，丝丝缕缕的云烟环绕其中，但千万不要乱信导游说缆车要很长的排队，千里迢迢上去才值得。</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col width="300" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>评论标题</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>评论主体</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>很不错的酒店</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>总体感觉很不错的酒店，位置非常好，就在楚雄经开区主干道上，交通非常方便，外出办事很便利；酒店客房也很不错，装修很好，设施比较新而且很全，住的很舒适，床铺也比较舒服；早餐菜的品种很丰盛，总体很满意。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>开发区的酒店</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>酒店在开发区，离彝人古镇不远也不近，住过的是酒店的复式楼，楼下是客厅，楼上是卫生间和床，感觉楼上层高矮了些，不太舒服。酒店还有KTV会很吵。</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>没办法了，只能住下</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>到酒店的时候已经是晚上了，外面的环境看不到。刚到的时候感觉大堂还不错，住这里是因为这里的不同风格的房间，榻榻米，欧式的，中式的，入住之后才感觉到失望啊。走廊里灯都不亮，像恐怖片里的，房间里太空旷，感觉都没什么东西</t>
+          <t>咖啡吧也开了酒吧，闲逛古城看到没有民谣和摇滚歌手就滚进来喝杯酒。环境不错，清静幽暗的酒吧风格，-根蜡烛照亮案头，没有别的顾客，点一杯椰林飘香，浓浓的椰香味稠稠的口感，还可以。薯条小吃一般，不过分量很多啊。</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>四星级的酒店，会是这样的吗？</t>
+          <t>还行</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>首先入住时没有热水，实在是太累了，全家都没有洗澡；其次卫生间差得无法形容，比以前的招待所还要差。还有是床下面都破了。。我已拍照了。如果这也是四星级酒店的话。。我也只能是无语了。。</t>
+          <t>生日的时候和朋友去过一次，服务不错，菜品的话，还是觉得蘑菇牛排最好吃，整体评价下来还行吧。来大理的话强烈推荐哦</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>简装小跃层体验</t>
+          <t>还不错</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>跟团游云南的时候住的店，周围都是住所，对面有医院，网球场，一条小河，有个大草坪可以散步。小loft设计很简单，一楼有电视和沙发，电烧水，不过水杯太小了...晚上窗口望出去很惬意。二楼床很舒服，充电插座离床有点远，卫生间淋浴。睡觉蚊子很厉害，有配蚊香。</t>
+          <t>3月份的时候晚上9点多了，我们才到了这里，舒服的度过了2小时，这里的服务很不错，轻言细语，讲得很是温新，在这里可以见到各国的朋友，很是热门，推荐！！！！！！！！！！！！</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>布置风格很不错的酒店</t>
+          <t>还可以的</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>在大堂办理入住时，也没有什么感觉。进入楼层后，走廊黑呼呼，心里直泛滴沽，还四星级的酒店哩，环镜这么恶劣。_x000D_
-   打开房门的那一刹那，惊呆了！房间是复式双层的，还有落地玻璃！超爱的！！！后来在电梯那发现，原来每一层的房间都是不同风格的，有西式的、欧式的、中式的_x000D_
-   复式房间最不方便的就是，床在二楼，行李搬运不方便，其他很好。房间的隔间也不佳，按导游的原话，酒店二楼整晚都在唱青藏高原，好吵。</t>
+          <t>味道还不错两个人晚上9点喝到11点两个多小时吧。味道还得，环境也还算是不错的了，服务态度也很好，可以就是我们去的时候基本上没人~~~~~</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>地中海式的复式酒店</t>
+          <t>食物很棒,气氛超赞</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>大厅很开阔，进入房间门的第一感觉是 “这是我的房间吗？”复式的格局最吸引人，像是私人别墅，坐在大厅舒适的沙发上，已经让人尽享奢华</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>干净，舒适，很棒！</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>这个酒店是我们去云南旅游住的最好的一家了，酒店里面每层都是不同的风格，我们住的是小复式结构，里面设施挺好，也很干净，总体觉得不错~</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>房间空间挺大的</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>这家酒店里的房间是复式的，跟家里的复式楼一样，两层的。房间空间挺大的，房子装饰的不错，装修得很特别，浴室晚上有热水，但是晚上可能洗澡的人比较多，水压不够，出水就有问题了。</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>感觉很新颖</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>酒店周边就是一个网球场，选择的是一个复式楼的格局，上下两楼，下面是客厅，上面就是卧室，给人感觉很新颖，其实它装饰很简单，也比较明亮的感觉不过隔音效果不太好，房间与房间之间就可以听到声音。它酒店楼层比较高，外边是灰色的。硬件设施配套还可以，不过电视机很模糊。而且房价内也有包含早餐，餐饮也不错。服务员不会主动跟客户说话。当时看到烧开水壶外边看到没擦干净一样。</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col width="300" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>评论标题</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>评论主体</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>还可以了</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>住宿条件，早餐都还不错，就是价格有些高，早餐都是自助的，凭着住宿还能得到桑拿半价优惠，很不错的、、、、桑拿的服务很好，我很喜欢去</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>总体印象很好</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>总体印象很好，很干净，装修得很大气，服务比较到位，价位有好几种，登记住客房去洗桑拿是半价，房间空间格局好，每层都有无线路由器的可以上网，用餐可以下午2点到洗桑拿的餐厅去用餐，离城区很近，交通很方便。</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>干净卫生</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>总体印象还不错，装修地道，环境不错，卫生干净，服务周到。是在昆明游玩时落脚的一个选择。不过靠路边的房间隔音效果不是很好，影响睡眠质量，选房间时尽量还是选择远离路边的房间吧。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>服务很到位</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>提供了许多的小食品，吃的东西，从服务上讲感觉更到位一些。另外房间比较干净舒适，地理位置感觉还是不错的交通出行都挺方便的，就是停车不方便，停车场太小了车位太少了，要是能改进就更好了。房间里面提供的设施设备也还行挺齐全的，酒店就在路边，但是房间的隔音效果还是不错的。</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>各种服务都比较贴心的</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>各种服务都比较贴心的，我们很多时候都是自己带电脑的，在这里住的话他们会主动来安上网线，还会主动问我们需要什么服务，房间比较宽敞，面积是可以的，设施也可以，卫生间比较大。旁边还有一个咖啡厅，就是房间自带的，也不大，可能是对空间合理的安排了一下，感觉还是不错的，我住过很多酒店，但是很少有带咖啡厅的。入住酒店的话，桑拿什么的都是五折优惠的。</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>服务好，真周到</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>感觉这家酒店蛮好的，总体还可以，比我之前所住过的一些都要好。首先这家酒店干净，服务好，他待客好，擦车洗车服务都有，而且这家酒店一些矿泉水都是免费的，一般要是叫服务人员送烟送什么的都是随叫随到的。总体来说这家酒店也是比较干净的。但是我感觉这家酒店位置很普通。</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col width="300" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>评论标题</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>评论主体</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>繁华已成过去，唯有寂静留期名</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>沙溪，大理出滇北上的最后一站！老人们在门口喝着水烟筒！沧桑的眼眸中追忆着过去的繁华，沙哑的喉咙里哼着小调，传达出那时的故事！爱、恨、情、仇……</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>跨越4小时的车程，只为一睹你的美</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>要从下关北站坐车去剑川，然后从剑川坐农村巴士去沙溪古镇，总耗时4小时左右，而且开的很快了，但是风景太美了，黑惠江周围，野鸭子野鹅，当地人放养的马构成了极为靓丽的风景线</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>意料之外地好</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>非常宁静祥和的小镇，最大限度地保留原貌的同时又有着水准较高的规划设计和提升改造（14年首批特色小镇），当地人民热情友好</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>茶马古道上的最后一个保留完整的古镇</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>很小，很特别，要感谢那位发现并拯救她的博士。走出古镇发现外面的大片田野和汩汩的山泉水，这里很特别，很安静，也不容易抵达，车道也不好开，孤独星球推荐的，总要来一次，一次也就够了。</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>入住的客栈里有许多宠物</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>带着猫和狗一起，自驾游玩了这里。这个当年的古道驿站之地，现在仍然保留了古朴的风貌，小村子很安静，游客不多。在我们入住的客栈里，主人喂养有许多宠物，因此她认爽快地接受我们带宠物入住。在这里品尝了松茸鸡汤，味道很是鲜美的。</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>历史悠久的千年古镇，至今仍然保持着最原始的建筑特色。</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2001年10月11日，世界纪念性建筑基金会（WMF）在 美国 纽约 宣布， 中国 云南 沙溪 （寺登街）区域入选2002年101个世界濒危建筑保护名录（ 中国 同期入选的有万里长城、 上海 欧黑尔.雷切犹太教堂、 陕西 大秦宝塔和修道院）。名录中指出：“ 中国 沙溪 （寺登街）区域是茶马古道上唯一幸存的古集市，保存了完整无缺的戏台、客栈、寺院、寨门，使这个连接 西藏 和 南亚 的集市相当完备”。</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>沙溪应该名列中国古镇前三！</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>自然。商业气息还未完全掩盖古镇的淳朴。与周边环境融合完美。古镇内民宿都非常漂亮。古镇周围的村落适合步行。每周五这里还有热闹的集市。希望在那里住上十天半个月。</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>古旧的超迷你古镇</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>非常小的古镇，能看的地方不多，但是正因为小且交通不便，所以人不多。在这里发发呆，真心不错。还可以走走后面有小河和小桥。前面的人说寺登街是核心区域，其实是错的，害得我住的太远了。古戏台附近才是核心区域。</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>有特色的古镇</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>这个古镇并不大，有一条街叫做是寺登街，为这个古镇的核心区域，卖的东西价格平易近人，在这里边可以待两个小时，很有民族风！</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>清静好地方</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>茶马古道之一，安静祥和，居民和善亲切，风光美，但交通上有些不便，但是值得前往住个几天，去大理可顺游此地。</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col width="300" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>评论标题</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>评论主体</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>到云南必须去看的</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>《云南映象》是一台将云南原创乡土歌舞与民族舞重新整合的充满古朴与新意的大型歌舞集锦。参与《云南映象》演出的演员70%来自云南各村寨的少数民族，演出服装全部是少数民族生活着装的原型。有"舞神"美誉的著名舞蹈家杨丽萍出任总编导及艺术总监，并领衔主演。云南省昆明市盘龙区东风西路132-134号云南艺术剧院内</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>超棒的表演！</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>这是一个高能量，高强度的表演，蕴含在云南丰富的文化遗产里的娱乐和教育。很值得！</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>云南旅拍</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>行摄途中所遇到当地人民，质朴纯真，令我印象深刻。 经过对方同意， 所拍摄的照片，回国后分享给同事与家人， 也得到许多的回响，真是不虚此行。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>啤酒坊</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>房间挺宽敞，明亮整洁，保洁大姐人挺好热情。热水挺大，水温也很好掌握。总之非常好的一家酒店。下次还会在来。好好好好好好……</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>到云南绝对要看！</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">云南- 聚集了不同小数民族的地方，不同小数民族都有他们独特的文字、传统的文化色彩。
-云南映象就是由不同小数民族的人表演呈现以前人们的生活，
-例如没有雨的话会跳求雨舞
-这个表演每天都有演出，去云南绝对要看
-他们的舞艺、特技非常出色！
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>非常细致的表演</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>著名舞者杨丽萍，以他为核心，来到昆明如果没有看这一场表演的话，非常的可惜，以孔雀舞著名，当然他现在转身为幕后了，现在看到的孔雀舞都是他的徒弟们所演出的，非常非常的好看！</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>非常震撼</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>很久以前和家人一起看的演出，那时到昆明旅游，听说这个演出不错慕名前往，真的很棒，舞台效果，各方面都很震撼，有机会还会再看</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>灵魂的洗礼</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>如果你对民族原生态艺术有兴趣，那么来到昆明的你可以去艺术剧院欣赏这出大型民族艺术表演。在这里你会忘记自己，沉浸在原生态的激情和冲击里。</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>节目还是不错的，值得一看</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>云南映象公演很多年了，我看过三次，感觉节目还是不错的，如果是第一次到云南或是喜欢看演出的，那么这个节目值得推荐。很多演员都是农民，编舞是杨丽萍，她把原生态的云南各民族舞蹈重新改编后搬上舞台。</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>值得一看</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>很不错的表演，展现云南多个少数民族的特色乐器及民俗风情，非常值得一看。门口有停车位，7:30就进场了，门口扫码还有明信片送，大厅可以合照，陈列的鼓好多人都在敲，很有特色。</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col width="300" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>评论标题</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>评论主体</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>不友善的旅游景点</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>昆明附近的石林风景区与西山公园是云南两个最传统的景点。石林门票极贵，如果要坐接驳车还要购票，加起来要200元人民币，相当昂贵。公园中有大小石林两区，各种奇石的确值得观赏。但是景区标示不清，如果没有导游，非常容易就会迷路，景区里的工作人员也相当冷漠，不愿意提供协助。最令人不🈵️的是如果接驳车的票券遗失了，还要再购买一次全票，全然是海削游客的操作。总体而言CP值很低。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>独特而自然的地标，但太贵了！</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>你可以从昆明东汽车站乘坐大巴到达这里，昆明东汽车站位于地铁3号线和6号线（与机场相连）的交汇点。真是一个美丽的地方，岩石是天然形成的，道路维护良好。但是对于一个公园来说，人民币175元的价格太贵了。景点不错，但要注意价格。</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>阿诗玛的故乡</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>如果来昆明石林地质公园还是需要看看的，来看看阿诗玛和阿黑哥。不过左看看右看看到处是石头，人山人海不太方便拍照片哦。</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>石林风景区</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>这个地方如果没有导游带领的话，非常容易进得去出不来，因为叉路非常的多，因为非常有名，所以人山人海，当你来到的时候希望你不要迷路。</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>去了很多次，每次感受不同</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>去石林建议多留点时间给自己，不要跟着导游转一圈两个小时就出去，有很多东西还等着我们探索和发现。我们这次去刚好遇到冷天，没有呆多久就出来了，有些遗憾。</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>大小石林阿诗玛</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>下午三点去的，时间有点赶，有些地方没有去，其实主要就是去看喀斯特地貌的特征及景观，如果请讲解的话，游览很快，如果有小朋友一起，建议请个讲解员，会告诉你石峰像什么，寓意什么，有些还是挺有意思的。我是一路听着别人家的讲解过来的，如果时间不赶，我会自己一点点感受，游览时间三小时到四小时吧，还是很值得去看看的</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>非常一般的景点</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>可能是去过土耳其的奇石林！因为奇石林像蘑菇很特别！但这里却像一座座小小的中国假山！加上虽然是春节过后，本地游客仍太多！完全不能投入赏景！</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>和同伴在这捉迷藏还是好玩的</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>是在昆明坐的大巴和几个驴友一起去的，好像是花了一个多小时。无需报团，到了景点自己购票就可以了。石林矗立，还是很壮观很有特色的，在昆明停留的话，还是值得一去的。</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>鬼斧神工</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>是我去过的第一个中国国家地质公园，大千世界无奇不有，大自然怎么能造出如此神奇的地方，这究竟要孕育多少力量？
-春节期间，游客太多太多，可能平日去可以放慢脚步去欣赏</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>石林九乡溶洞一日游</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>昆明到石林的大巴很多，最后一班从石林返回昆明是下午5:30。九乡没有大巴回昆明，所以建议早上从昆明到石林后，与人拼车先去九乡，大约一人30元。石林到九乡大约40分钟车程。玩了九乡溶洞，下午玩石林，会比较好控制回昆明的大巴时间。石林巴士站下车后就会有人来询问要不要拼车去九乡。两个地方一起一日游最好自备午餐，节省用餐时间。一定要穿一双好走的鞋。
-石林风景区相当整洁美丽，如果赶时间，加买电瓶车，三个小时足够逛完。</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col width="300" customWidth="1" min="2" max="2"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>评论标题</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>评论主体</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="inlineStr">
-        <is>
-          <t>云南最适合旅行的地方，众多民族文化齐聚在这里</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>挺久没有找一个地方去闲逛了，这几天夜晚的时候跟几个朋友一起去云南大学附近逛了一下，这里的建筑没有太多的变化只是找不到了之前的感觉和激情。看着旁边逐渐被岁月痕迹印刻的一切只是回不到当初的时代，所以想着计划去云南的民族村去闲逛去感受不同民族的风味。_x000D_
-根据计划带上游人直接去民族村，不过这次并不是自驾游而是徒步，因为附近的交通还行不需要太多的景点切换之间的步也不适合开车就比较适合徒步旅行，去感受这里附近的民族特色。_x000D_
-今天的第一个目标就是去吃过桥米线，这也是云南的一大特点，尤其是在云南大学附近的这家是自己曾经的回忆，吃过了这么多的过桥米线这家不一定是最好吃却是最熟悉的味道，不少地方也会有卖木瓜水，吃起来有种玫瑰花的味道在嘴中弥漫。_x000D_
-名族村这边还有一个比较不错的项目就是缆车价格并不是很贵才40元就能坐上横跨西山的缆车就能从高空之中去俯视滇池。_x000D_
-当然要想坐缆车的话还得到西山的半山腰，这段距离的话可以徒步，当然也可以进行乘坐景区里面的车去景点就可以了，滇池看起来比较清澈，如果想要去龙门的的话可以选择电瓶车，不过门票总体还是比较便宜，网购或者是报团会便宜一些，当然学生证也会变得更加便宜。_x000D_
-接下来就去云南民族村景点中进行游览了，民族村是云南比较大的人工景区占地接近1300亩地，不过其中水域面积大概大约在500亩左右，里面的景色十分豪华和气派。_x000D_
-民族村中拥有众多民族的特色建筑，还有民族服饰，见识到少数民族的风俗和习惯，也能领略到少数民族的表演，来到云南民族村等于你能了解多个少数民族。_x000D_
-一开始来到这里还比较担心里面可能没有太多吃的地方所以准备了不少的干粮以及饮料，进来之后让我受到了暴击，一开始应该先进行查看清楚攻略再来了，因为这里的商业化比较浓厚，吃的东西应有尽有结果背包里的东西都没有吃过就背着一路。_x000D_
-中间有比较吸引我的地方是墙壁上纳西族文字，纳西族文字可以说得上是唯一一个活的象形文字，令人印象深刻，每个文字中都有很多的魅力一种似乎相识却又不相识的感觉，一股浓浓的历史气息。_x000D_
-不同的民族在建筑上面都会有点细微的差别或者是有很多的共同点，也体现了这些民族在发展过程中的变化，民族村这个景点多很多人都会特色的民族服饰，更能直观的感受到民族文化。_x000D_
-当然这里最让人兴奋的地方在于表演，比如说傣族的泼水节活动，就有很多旅客们加入到这里的狂欢之中，还有一些民族舞蹈让人感觉到一些不一样的文化在艺术观赏之间更加懂得。_x000D_
-来到这里让人仿佛进入了美食的国度，这里的美食应有尽有，基本上各个地方的美食这里都有，还有一些特色食物，依旧最喜欢的就是这里的鲜花饼。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="inlineStr">
-        <is>
-          <t>浓浓滴名族气息</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>民族村离我入住的华邑酒店不是很远，就在旁边，也去转了一下，名族古风建筑很多，走了一圈过来，据说名族节假日还有大型会场!可惜没赶上好日子。</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="inlineStr">
-        <is>
-          <t>云南名族村</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>彩云之南，百族之欢一云南民族村体验中华民族56个民族，在这里就可以看到26个哦，整个完整的体验要3小时哦对脚力可是个考验呢。白族热情舞蹈以及别致的建筑风格让人影响深刻，白族三塔驻立湖上阳光倒影非常美溧僳族不仅有特色建筑更有千杯连心酒的表演哦彝族特色的图腾真的是一天看不完呢少数民族的热情好客就是最大的体验啦。整个景区配套也很高，吃的喝的样样有哦。很值得--去</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>很好玩</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">云南民族村是去云南旅游必打卡的地方  他是反日央和展示云南民族文化，景区内水陆交错，清新优雅  各村寨景点错落有致，  其间有绿荫小径、  亭阁回廊、拱桥石阶相衔接,  不光有个各个民族的建筑风格、  民族服装  风俗习惯的介绍，  还有很多歌舞表演、  在里面逛了一下午  悠闲!
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>环境好</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>风景环境比较干净，有在认真维护环境卫生。附近的吃的比较多。种类齐全。选择比较多，味道也好。附近玩的地方也多，适合家庭出游选择，天气也好，适合出去逛逛出门</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>点评云南名族村</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>充满了少数民族特色，融合了多民族的文化，那里设立了很多个少数名族村落，每个村落都以一个少数名族的名字来命名，并且融合了该少数名族的特色来修筑建筑物，想要领略云南的少数名族风情，这里是个不得不去的打卡景点！</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>民族村</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>一直很喜欢云南，这次终于有机会来了，第一站就是春城昆明，旅途第一站去了有名的名族村，这里的少数民族真的很热情好客，最吸引我的就是这里各具名族风格的建筑，很有特色，我非常喜欢，以后会推荐给朋友。</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>出游</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>民族村第一次去，太好玩了，门口的小吃街东西便宜有好吃，都是当地特色，门票也不贵，进去有好多少数民族村寨，全天到晚某有节目表演，太喜欢了，值得，尤其是晚上有篝火晚会，人多很热闹</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>感觉一般</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>带孩子出行，下了车要走很长一段路，但是这条路非常不适合带孩子推手推车，很颠簸。带孩子去不方便，匆匆走了两个寨子就离开了。</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>多彩民族村</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>夏天去也不会很热，风景宜人，少数民族的风情独特，边赏景变感受风土人情，真的不错！傣族的寨子很漂亮，有大大的树木，他们的衣服艳丽多彩！还看了高山族的舞蹈，俊男美女齐上阵！</t>
+          <t>6个人来这儿吃了晚餐,很享受。尤其是蘑菇牛排和腰果鸡丁,味道超赞。只不过,匹萨只能算好吃而已(不是特别棒)。服务员英语说得很好,会给你提很好的建议。东西几乎是同时上的,很让人惊喜。
+可以坐在露台的座位上,很棒。明天还来!</t>
         </is>
       </c>
     </row>
@@ -4732,125 +2911,125 @@
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
         <is>
-          <t>很好</t>
+          <t>到云南必须去看的</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>酒店地理位置不错，旁边就是南亚商圈，周边美食也很多，酒店设施也很完善五一跟好友出来玩是个不错的选择，值得一提的是服务小哥服务都很到位，门口的andrew服务恨好很热情，很好的一次体验！！</t>
+          <t>《云南映象》是一台将云南原创乡土歌舞与民族舞重新整合的充满古朴与新意的大型歌舞集锦。参与《云南映象》演出的演员70%来自云南各村寨的少数民族，演出服装全部是少数民族生活着装的原型。有"舞神"美誉的著名舞蹈家杨丽萍出任总编导及艺术总监，并领衔主演。云南省昆明市盘龙区东风西路132-134号云南艺术剧院内</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>值得入住</t>
+          <t>超棒的表演！</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>家人计划出游，也不知道去哪里？在朋友的推荐下，决定去昆明，入住了七彩云南温德姆酒店，酒店服务不错，特别是礼宾部前台、吕靖鹏.童师傅.服务周到.唯一不足的是习惯打出租车的我在酒店没有岀租车等了十多分钟左右.礼宾部的小哥才帮我叫到.总的来说这次的旅行特别顺利!</t>
+          <t>这是一个高能量，高强度的表演，蕴含在云南丰富的文化遗产里的娱乐和教育。很值得！</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>热情主动</t>
+          <t>云南旅拍</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>由于老高温天气，实在受不了，又是假期，顺便帶娃娃散散心，刚到到酒店门口，礼宾员童师傅过来开车门，拿行李，并带我们到前台成办理入住还送到房间，很好的服务，不错！住了几天感觉很好！以后到昆明也会入住该酒店！</t>
+          <t>行摄途中所遇到当地人民，质朴纯真，令我印象深刻。 经过对方同意， 所拍摄的照片，回国后分享给同事与家人， 也得到许多的回响，真是不虚此行。</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>酒店服务周到</t>
+          <t>啤酒坊</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>酒店交通方便，房间大，住宿舒适；自助餐品种丰富，甜点尤其美味。酒店服务人员整体素质高，实习生Alan特别友好，服务热情，要特别表扬一下。</t>
+          <t>房间挺宽敞，明亮整洁，保洁大姐人挺好热情。热水挺大，水温也很好掌握。总之非常好的一家酒店。下次还会在来。好好好好好好……</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>出差</t>
+          <t>到云南绝对要看！</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>头一次来这家酒店出差，酒店非常的漂亮，周围超市等很多公共场所也非常多，很方便内部部装饰也很豪华，门口礼宾部的Alan服务态度非常热情 很不错</t>
+          <t xml:space="preserve">云南- 聚集了不同小数民族的地方，不同小数民族都有他们独特的文字、传统的文化色彩。
+云南映象就是由不同小数民族的人表演呈现以前人们的生活，
+例如没有雨的话会跳求雨舞
+这个表演每天都有演出，去云南绝对要看
+他们的舞艺、特技非常出色！
+</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>感觉很不错的一家酒店</t>
+          <t>非常细致的表演</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 入住七彩云南温德姆酒店期间，礼宾员Jace的服务让我印象深刻！他热情周到，从抵达时的亲切问候到离店时的细致协助，全程都展现了极高的专业素养
-Jace不仅对酒店设施和周边景点了如指掌，还主动为我们规划了游玩路线，推荐了本地人才知道的美食胜地。他的建议让我们的旅程更加轻松愉快。
-更难得的是，Jace始终保持着真诚的微笑和耐心的态度，无论是深夜的突发需求还是琐碎的咨询，他都能迅速响应并妥善解决。</t>
+          <t>著名舞者杨丽萍，以他为核心，来到昆明如果没有看这一场表演的话，非常的可惜，以孔雀舞著名，当然他现在转身为幕后了，现在看到的孔雀舞都是他的徒弟们所演出的，非常非常的好看！</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>出游</t>
+          <t>非常震撼</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>酒店位置优越，交通便利，周边设施齐全。房间干净整洁，床品舒适，礼宾Jacky热情周到，早餐丰富美味，性价比超高！"
-‌环境与细节‌
-"环境优雅安静，房间装修精致，设施齐全且崭新。服务贴心细致，从入住到退房全程顺畅，宾至如归的体验！"</t>
+          <t>很久以前和家人一起看的演出，那时到昆明旅游，听说这个演出不错慕名前往，真的很棒，舞台效果，各方面都很震撼，有机会还会再看</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>出差</t>
+          <t>灵魂的洗礼</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>酒店环境整洁，房间布局堪称完美，优雅又不失情调，礼宾童世伟服务周到，让人无比舒心。给我营造了一种家的感觉，无论大处到小处都是那么无懈可击。</t>
+          <t>如果你对民族原生态艺术有兴趣，那么来到昆明的你可以去艺术剧院欣赏这出大型民族艺术表演。在这里你会忘记自己，沉浸在原生态的激情和冲击里。</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>出差</t>
+          <t>节目还是不错的，值得一看</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>礼宾童世伟服务热情周到，环境干净优雅，位置便利，设施齐全，宾至如归的体验让人难忘，强烈推荐！‌
-‌房间宽敞明亮，床品柔软舒适，早餐丰富美味，细节处理贴心，下次还会选择入住！从入住到退房全程贴心服务，隔音效果好，设施智能便捷，地理位置优越，性价比超高</t>
+          <t>云南映象公演很多年了，我看过三次，感觉节目还是不错的，如果是第一次到云南或是喜欢看演出的，那么这个节目值得推荐。很多演员都是农民，编舞是杨丽萍，她把原生态的云南各民族舞蹈重新改编后搬上舞台。</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>出差</t>
+          <t>值得一看</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>酒店环境优美，地理位置优越，交通便利。房间舒适卫生，设施先进，礼宾Jacky服务人员热情周到。早餐丰富，网络信号好。性价比高，入住体验极佳，值得推荐！酒店位置便利，购物方便</t>
+          <t>很不错的表演，展现云南多个少数民族的特色乐器及民俗风情，非常值得一看。门口有停车位，7:30就进场了，门口扫码还有明信片送，大厅可以合照，陈列的鼓好多人都在敲，很有特色。</t>
         </is>
       </c>
     </row>
@@ -4891,133 +3070,132 @@
     <row r="2">
       <c r="A2" s="7" t="inlineStr">
         <is>
-          <t>房间及其老旧！</t>
+          <t>云南最适合旅行的地方，众多民族文化齐聚在这里</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>这个酒店完全是因为第二天想逛逛滇池，所以顺便订了这家。
-但是，真的是好老好老。
-酒店位置确实是十分优越，步行过街就可以到滇池，随时出门逛逛。
-自身环境也是很不错的，园林式设计，湖景和花园都很漂亮，建筑的外墙是经过翻新的，所以看起来特别有欧式的洋气，拍照啊什么的都很好看的呢。
-但是！
-酒店房间内部是十分的老旧，难怪也就这个价格，最冤枉的是在携程订了之后，发现点评网的价格便宜大半，瞬间石化！不能退！
-自认倒霉！
-房间的布置和硬件设施真的是旧到爆炸！也就古老的招待所水平！
-实在是太凑合了。！
-但是房间的阳台美景真的是太太太好看了！就是一副风景画！
-建议感觉翻新内部，然后涨价！
-早餐很凑合！</t>
+          <t>挺久没有找一个地方去闲逛了，这几天夜晚的时候跟几个朋友一起去云南大学附近逛了一下，这里的建筑没有太多的变化只是找不到了之前的感觉和激情。看着旁边逐渐被岁月痕迹印刻的一切只是回不到当初的时代，所以想着计划去云南的民族村去闲逛去感受不同民族的风味。_x000D_
+根据计划带上游人直接去民族村，不过这次并不是自驾游而是徒步，因为附近的交通还行不需要太多的景点切换之间的步也不适合开车就比较适合徒步旅行，去感受这里附近的民族特色。_x000D_
+今天的第一个目标就是去吃过桥米线，这也是云南的一大特点，尤其是在云南大学附近的这家是自己曾经的回忆，吃过了这么多的过桥米线这家不一定是最好吃却是最熟悉的味道，不少地方也会有卖木瓜水，吃起来有种玫瑰花的味道在嘴中弥漫。_x000D_
+名族村这边还有一个比较不错的项目就是缆车价格并不是很贵才40元就能坐上横跨西山的缆车就能从高空之中去俯视滇池。_x000D_
+当然要想坐缆车的话还得到西山的半山腰，这段距离的话可以徒步，当然也可以进行乘坐景区里面的车去景点就可以了，滇池看起来比较清澈，如果想要去龙门的的话可以选择电瓶车，不过门票总体还是比较便宜，网购或者是报团会便宜一些，当然学生证也会变得更加便宜。_x000D_
+接下来就去云南民族村景点中进行游览了，民族村是云南比较大的人工景区占地接近1300亩地，不过其中水域面积大概大约在500亩左右，里面的景色十分豪华和气派。_x000D_
+民族村中拥有众多民族的特色建筑，还有民族服饰，见识到少数民族的风俗和习惯，也能领略到少数民族的表演，来到云南民族村等于你能了解多个少数民族。_x000D_
+一开始来到这里还比较担心里面可能没有太多吃的地方所以准备了不少的干粮以及饮料，进来之后让我受到了暴击，一开始应该先进行查看清楚攻略再来了，因为这里的商业化比较浓厚，吃的东西应有尽有结果背包里的东西都没有吃过就背着一路。_x000D_
+中间有比较吸引我的地方是墙壁上纳西族文字，纳西族文字可以说得上是唯一一个活的象形文字，令人印象深刻，每个文字中都有很多的魅力一种似乎相识却又不相识的感觉，一股浓浓的历史气息。_x000D_
+不同的民族在建筑上面都会有点细微的差别或者是有很多的共同点，也体现了这些民族在发展过程中的变化，民族村这个景点多很多人都会特色的民族服饰，更能直观的感受到民族文化。_x000D_
+当然这里最让人兴奋的地方在于表演，比如说傣族的泼水节活动，就有很多旅客们加入到这里的狂欢之中，还有一些民族舞蹈让人感觉到一些不一样的文化在艺术观赏之间更加懂得。_x000D_
+来到这里让人仿佛进入了美食的国度，这里的美食应有尽有，基本上各个地方的美食这里都有，还有一些特色食物，依旧最喜欢的就是这里的鲜花饼。</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>非常亲切</t>
+          <t>浓浓滴名族气息</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>服务人员非常亲切，地点超好，连吃三天早餐，菜色都有小小的变化，因为我吃素，每天都可以吃到不同口味的炒饭，甚至还有炒米粉，超开心～！</t>
+          <t>民族村离我入住的华邑酒店不是很远，就在旁边，也去转了一下，名族古风建筑很多，走了一圈过来，据说名族节假日还有大型会场!可惜没赶上好日子。</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>还可以</t>
+          <t>云南名族村</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>酒店还可以，晚上有点儿凉。距离滇池挺近，主要是滇池景色挺好看的，还有海埂大坝，听说再一个月就海鸥来了。</t>
+          <t>彩云之南，百族之欢一云南民族村体验中华民族56个民族，在这里就可以看到26个哦，整个完整的体验要3小时哦对脚力可是个考验呢。白族热情舞蹈以及别致的建筑风格让人影响深刻，白族三塔驻立湖上阳光倒影非常美溧僳族不仅有特色建筑更有千杯连心酒的表演哦彝族特色的图腾真的是一天看不完呢少数民族的热情好客就是最大的体验啦。整个景区配套也很高，吃的喝的样样有哦。很值得--去</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>很典型的中国旧式国营风格酒店，非常美丽的景色</t>
+          <t>很好玩</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>因为参加会议，主办方安排来这里入住。房间干净整洁，面积相当不错，但是卫生间面积较小，很拘谨，热水舒适。酒店整体非常非常美，环境、景色都是一流。离一些景点也很近，但是体会不到服务的热情和意识，整体入住感受一般。</t>
+          <t xml:space="preserve">云南民族村是去云南旅游必打卡的地方  他是反日央和展示云南民族文化，景区内水陆交错，清新优雅  各村寨景点错落有致，  其间有绿荫小径、  亭阁回廊、拱桥石阶相衔接,  不光有个各个民族的建筑风格、  民族服装  风俗习惯的介绍，  还有很多歌舞表演、  在里面逛了一下午  悠闲!
+</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>环境很好</t>
+          <t>环境好</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>酒店环境没得说，超级一流，房间也还算不错，只是有些房间需要走得远一些，酒店大堂的玉器店不错，比我在版纳买的还便宜</t>
+          <t>风景环境比较干净，有在认真维护环境卫生。附近的吃的比较多。种类齐全。选择比较多，味道也好。附近玩的地方也多，适合家庭出游选择，天气也好，适合出去逛逛出门</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>客房设施相当陈旧</t>
+          <t>点评云南名族村</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>酒店位置非常好，离滇池很近，旁边就是民俗村，酒店内部很漂亮，自己挖了一个池子，绕着池塘遛弯很舒服。_x000D_
-酒店只有5层，好像没有电梯，高原地区爬楼要小心，不能太快，不然会有反应。_x000D_
-客房只能说是一般般了，房内设施非常陈旧。房卡有特色，只有普通房卡的一半大。据说要翻修了，不然以目前的设施配置，配不上标称的星级水平。</t>
+          <t>充满了少数民族特色，融合了多民族的文化，那里设立了很多个少数名族村落，每个村落都以一个少数名族的名字来命名，并且融合了该少数名族的特色来修筑建筑物，想要领略云南的少数名族风情，这里是个不得不去的打卡景点！</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>大花园</t>
+          <t>民族村</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>花园式的酒店，环境好，绿化很好草地上刚刚撒了草子，嫩嫩的小草才冒出来。大堂里面，陶瓷的大花瓶里装满了梅花，味道很香办理完手续，走进电梯里面都有香味，房间里面有红木的家具，显得上档次，电视信号不是很好啊，有些台清楚。</t>
+          <t>一直很喜欢云南，这次终于有机会来了，第一站就是春城昆明，旅途第一站去了有名的名族村，这里的少数民族真的很热情好客，最吸引我的就是这里各具名族风格的建筑，很有特色，我非常喜欢，以后会推荐给朋友。</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>环境优美的酒店</t>
+          <t>出游</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>这家酒店环境非常美，到处是鲜花和绿植，风格很像东南亚一带的度假村。几乎每个房间都能看到风景。看到有几对新人在酒店里拍婚纱照。因为酒店在民族村旁边，所以刚好借到民族村的湖景。酒店有好几个餐厅，餐饮都非常棒，提供云南当地的特色美食。酒店位置也很好，旁边是海埂公园，另一边是民族村。房间也够大，唯一美中不足的是，房间没有空调，冬天会有些冷。</t>
+          <t>民族村第一次去，太好玩了，门口的小吃街东西便宜有好吃，都是当地特色，门票也不贵，进去有好多少数民族村寨，全天到晚某有节目表演，太喜欢了，值得，尤其是晚上有篝火晚会，人多很热闹</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>花园里的酒店</t>
+          <t>感觉一般</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>酒店在云南民族村对面，酒店的楼都联通着环湖而建，房间都面冲内湖，鲜花、绿植、湖水，环境优美，但是房间比较阴暗，硬件较差，酒店餐厅包间可打开窗门，就像在院子吃饭，很是舒服，但是云南特色菜较少，菜价不低。</t>
+          <t>带孩子出行，下了车要走很长一段路，但是这条路非常不适合带孩子推手推车，很颠簸。带孩子去不方便，匆匆走了两个寨子就离开了。</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>风景如画乐不思家</t>
+          <t>多彩民族村</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>酒店真的很别致，床，桌子都是用藤条制成的，住起来感觉回到了古代似的，酒店又在滇池的边上，环境特别好，房间的卫生很好，还可以在房间里面泡温泉，房间外面有个阳台，在阳台欣赏滇池的美景，真的好喜欢这家酒店，都不想走了。</t>
+          <t>夏天去也不会很热，风景宜人，少数民族的风情独特，边赏景变感受风土人情，真的不错！傣族的寨子很漂亮，有大大的树木，他们的衣服艳丽多彩！还看了高山族的舞蹈，俊男美女齐上阵！</t>
         </is>
       </c>
     </row>
